--- a/Sommertraining_Einteilung.xlsx
+++ b/Sommertraining_Einteilung.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="454">
   <si>
     <t>Mo - 6h - Court 1 (1)</t>
   </si>
@@ -734,646 +734,643 @@
     <t>Fr - 21h - Court 3 (240)</t>
   </si>
   <si>
-    <t>Player_56 (28)</t>
+    <t>Player_134 (38)</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Player_81 (25)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Player_113 (22)</t>
+  </si>
+  <si>
+    <t>Player_92 (23)</t>
+  </si>
+  <si>
+    <t>Player_63 (23)</t>
+  </si>
+  <si>
+    <t>Player_88 (15)</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Player_185 (23)</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>Player_49 (15)</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Player_21 (30)</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Player_70 (20)</t>
+  </si>
+  <si>
+    <t>Player_136 (10)</t>
+  </si>
+  <si>
+    <t>Player_100 (22)</t>
+  </si>
+  <si>
+    <t>Player_68 (26)</t>
+  </si>
+  <si>
+    <t>Player_72 (12)</t>
+  </si>
+  <si>
+    <t>Player_186 (22)</t>
+  </si>
+  <si>
+    <t>Player_18 (31)</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Player_85 (38)</t>
+  </si>
+  <si>
+    <t>Player_199 (20)</t>
+  </si>
+  <si>
+    <t>Player_14 (27)</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Player_51 (5)</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Player_5 (19)</t>
+  </si>
+  <si>
+    <t>Player_32 (6)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Player_99 (20)</t>
+  </si>
+  <si>
+    <t>Player_56 (20)</t>
+  </si>
+  <si>
+    <t>Player_188 (20)</t>
+  </si>
+  <si>
+    <t>Player_119 (14)</t>
+  </si>
+  <si>
+    <t>Player_67 (38)</t>
+  </si>
+  <si>
+    <t>Player_75 (46)</t>
+  </si>
+  <si>
+    <t>Player_102 (32)</t>
+  </si>
+  <si>
+    <t>Player_190 (17)</t>
+  </si>
+  <si>
+    <t>Player_66 (23)</t>
+  </si>
+  <si>
+    <t>Player_165 (22)</t>
+  </si>
+  <si>
+    <t>Player_105 (22)</t>
+  </si>
+  <si>
+    <t>Player_47 (22)</t>
+  </si>
+  <si>
+    <t>Player_176 (30)</t>
+  </si>
+  <si>
+    <t>Player_101 (33)</t>
+  </si>
+  <si>
+    <t>Player_71 (32)</t>
+  </si>
+  <si>
+    <t>Player_11 (34)</t>
+  </si>
+  <si>
+    <t>Player_144 (8)</t>
+  </si>
+  <si>
+    <t>Player_195 (27)</t>
+  </si>
+  <si>
+    <t>Player_115 (23)</t>
+  </si>
+  <si>
+    <t>Player_25 (27)</t>
+  </si>
+  <si>
+    <t>Player_177 (16)</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>Player_141 (27)</t>
-  </si>
-  <si>
-    <t>Player_60 (34)</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>Player_61 (31)</t>
-  </si>
-  <si>
-    <t>Player_9 (13)</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>Player_129 (8)</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Player_49 (17)</t>
-  </si>
-  <si>
-    <t>Player_23 (16)</t>
-  </si>
-  <si>
-    <t>Player_121 (23)</t>
-  </si>
-  <si>
-    <t>Player_32 (18)</t>
-  </si>
-  <si>
-    <t>Player_96 (15)</t>
-  </si>
-  <si>
-    <t>Player_16 (27)</t>
-  </si>
-  <si>
-    <t>Player_109 (9)</t>
-  </si>
-  <si>
-    <t>Player_84 (41)</t>
-  </si>
-  <si>
-    <t>Player_184 (21)</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Player_57 (25)</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>Player_15 (12)</t>
-  </si>
-  <si>
-    <t>Player_72 (29)</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Player_185 (18)</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Player_58 (7)</t>
-  </si>
-  <si>
-    <t>Player_76 (21)</t>
-  </si>
-  <si>
-    <t>Player_77 (18)</t>
-  </si>
-  <si>
-    <t>Player_136 (8)</t>
-  </si>
-  <si>
-    <t>Player_167 (9)</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Player_104 (17)</t>
+    <t>Player_161 (17)</t>
+  </si>
+  <si>
+    <t>Player_57 (9)</t>
+  </si>
+  <si>
+    <t>Player_122 (17)</t>
+  </si>
+  <si>
+    <t>Player_83 (17)</t>
+  </si>
+  <si>
+    <t>Player_31 (13)</t>
+  </si>
+  <si>
+    <t>Player_147 (22)</t>
+  </si>
+  <si>
+    <t>Player_196 (12)</t>
+  </si>
+  <si>
+    <t>Player_4 (28)</t>
+  </si>
+  <si>
+    <t>Player_54 (28)</t>
+  </si>
+  <si>
+    <t>Player_60 (28)</t>
+  </si>
+  <si>
+    <t>Player_53 (9)</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Player_89 (9)</t>
+  </si>
+  <si>
+    <t>Player_175 (5)</t>
+  </si>
+  <si>
+    <t>(*) Player_42 (46)</t>
+  </si>
+  <si>
+    <t>(*) Player_24 (44)</t>
+  </si>
+  <si>
+    <t>(*) Player_172 (38)</t>
+  </si>
+  <si>
+    <t>(*) Player_35 (31)</t>
+  </si>
+  <si>
+    <t>(*) Player_61 (30)</t>
+  </si>
+  <si>
+    <t>Player_104 (45)</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>Player_134 (26)</t>
-  </si>
-  <si>
-    <t>Player_170 (22)</t>
-  </si>
-  <si>
-    <t>Player_73 (12)</t>
-  </si>
-  <si>
-    <t>Player_19 (20)</t>
-  </si>
-  <si>
-    <t>Player_196 (26)</t>
-  </si>
-  <si>
-    <t>Player_181 (31)</t>
-  </si>
-  <si>
-    <t>Player_43 (13)</t>
-  </si>
-  <si>
-    <t>Player_115 (22)</t>
-  </si>
-  <si>
-    <t>Player_159 (19)</t>
-  </si>
-  <si>
-    <t>Player_38 (17)</t>
-  </si>
-  <si>
-    <t>Player_59 (20)</t>
-  </si>
-  <si>
-    <t>Player_124 (20)</t>
-  </si>
-  <si>
-    <t>Player_46 (24)</t>
-  </si>
-  <si>
-    <t>Player_161 (30)</t>
-  </si>
-  <si>
-    <t>Player_97 (32)</t>
-  </si>
-  <si>
-    <t>Player_67 (21)</t>
-  </si>
-  <si>
-    <t>Player_52 (14)</t>
-  </si>
-  <si>
-    <t>Player_199 (30)</t>
-  </si>
-  <si>
-    <t>Player_8 (28)</t>
-  </si>
-  <si>
-    <t>Player_92 (27)</t>
-  </si>
-  <si>
-    <t>Player_188 (30)</t>
-  </si>
-  <si>
-    <t>Player_39 (21)</t>
-  </si>
-  <si>
-    <t>Player_123 (9)</t>
-  </si>
-  <si>
-    <t>Player_11 (14)</t>
-  </si>
-  <si>
-    <t>Player_31 (24)</t>
-  </si>
-  <si>
-    <t>(*) Player_154 (33)</t>
-  </si>
-  <si>
-    <t>(*) Player_136 (8)</t>
-  </si>
-  <si>
-    <t>(*) Player_133 (21)</t>
-  </si>
-  <si>
-    <t>(*) Player_71 (26)</t>
-  </si>
-  <si>
-    <t>Player_68 (15)</t>
-  </si>
-  <si>
-    <t>Player_126 (43)</t>
-  </si>
-  <si>
-    <t>Player_82 (23)</t>
-  </si>
-  <si>
-    <t>R4</t>
+    <t>Player_13 (26)</t>
+  </si>
+  <si>
+    <t>Player_59 (14)</t>
+  </si>
+  <si>
+    <t>(*) Player_163 (19)</t>
+  </si>
+  <si>
+    <t>Player_130 (26)</t>
+  </si>
+  <si>
+    <t>Player_132 (26)</t>
+  </si>
+  <si>
+    <t>Player_55 (26)</t>
+  </si>
+  <si>
+    <t>Player_30 (26)</t>
+  </si>
+  <si>
+    <t>Player_17 (23)</t>
+  </si>
+  <si>
+    <t>Player_34 (27)</t>
+  </si>
+  <si>
+    <t>Player_135 (23)</t>
+  </si>
+  <si>
+    <t>Player_58 (28)</t>
+  </si>
+  <si>
+    <t>Player_64 (36)</t>
+  </si>
+  <si>
+    <t>Player_194 (42)</t>
+  </si>
+  <si>
+    <t>Player_6 (42)</t>
+  </si>
+  <si>
+    <t>Player_138 (43)</t>
+  </si>
+  <si>
+    <t>Player_154 (26)</t>
+  </si>
+  <si>
+    <t>Player_28 (19)</t>
+  </si>
+  <si>
+    <t>Player_125 (23)</t>
+  </si>
+  <si>
+    <t>Player_126 (25)</t>
+  </si>
+  <si>
+    <t>Player_84 (38)</t>
+  </si>
+  <si>
+    <t>Player_7 (38)</t>
+  </si>
+  <si>
+    <t>Player_139 (27)</t>
+  </si>
+  <si>
+    <t>Player_76 (25)</t>
+  </si>
+  <si>
+    <t>Player_152 (25)</t>
+  </si>
+  <si>
+    <t>Player_41 (34)</t>
+  </si>
+  <si>
+    <t>Player_157 (34)</t>
+  </si>
+  <si>
+    <t>Player_127 (35)</t>
+  </si>
+  <si>
+    <t>Player_87 (22)</t>
+  </si>
+  <si>
+    <t>Player_10 (22)</t>
+  </si>
+  <si>
+    <t>Player_74 (22)</t>
+  </si>
+  <si>
+    <t>Player_167 (22)</t>
+  </si>
+  <si>
+    <t>Player_2 (20)</t>
+  </si>
+  <si>
+    <t>Player_38 (23)</t>
+  </si>
+  <si>
+    <t>Player_48 (19)</t>
+  </si>
+  <si>
+    <t>Player_155 (17)</t>
+  </si>
+  <si>
+    <t>Player_27 (18)</t>
+  </si>
+  <si>
+    <t>Player_142 (19)</t>
+  </si>
+  <si>
+    <t>Player_128 (18)</t>
+  </si>
+  <si>
+    <t>Player_1 (19)</t>
+  </si>
+  <si>
+    <t>Player_179 (19)</t>
+  </si>
+  <si>
+    <t>Player_171 (18)</t>
+  </si>
+  <si>
+    <t>Player_50 (23)</t>
+  </si>
+  <si>
+    <t>Player_149 (19)</t>
+  </si>
+  <si>
+    <t>Player_8 (22)</t>
+  </si>
+  <si>
+    <t>Player_44 (23)</t>
+  </si>
+  <si>
+    <t>Player_146 (14)</t>
+  </si>
+  <si>
+    <t>Player_19 (18)</t>
+  </si>
+  <si>
+    <t>Player_106 (18)</t>
+  </si>
+  <si>
+    <t>(*) Player_43 (9)</t>
+  </si>
+  <si>
+    <t>Player_23 (33)</t>
+  </si>
+  <si>
+    <t>Player_26 (25)</t>
+  </si>
+  <si>
+    <t>Player_191 (12)</t>
+  </si>
+  <si>
+    <t>Player_15 (31)</t>
+  </si>
+  <si>
+    <t>Player_118 (20)</t>
+  </si>
+  <si>
+    <t>Player_39 (17)</t>
+  </si>
+  <si>
+    <t>Player_174 (25)</t>
+  </si>
+  <si>
+    <t>Player_16 (1)</t>
+  </si>
+  <si>
+    <t>Player_197 (7)</t>
+  </si>
+  <si>
+    <t>Player_117 (4)</t>
+  </si>
+  <si>
+    <t>Player_97 (13)</t>
+  </si>
+  <si>
+    <t>Player_120 (16)</t>
+  </si>
+  <si>
+    <t>Player_9 (8)</t>
+  </si>
+  <si>
+    <t>Player_143 (13)</t>
+  </si>
+  <si>
+    <t>Player_82 (18)</t>
+  </si>
+  <si>
+    <t>Player_40 (22)</t>
+  </si>
+  <si>
+    <t>Player_90 (19)</t>
+  </si>
+  <si>
+    <t>Player_78 (18)</t>
+  </si>
+  <si>
+    <t>Player_110 (22)</t>
+  </si>
+  <si>
+    <t>Player_158 (22)</t>
+  </si>
+  <si>
+    <t>Player_193 (29)</t>
+  </si>
+  <si>
+    <t>Player_162 (29)</t>
+  </si>
+  <si>
+    <t>Player_181 (27)</t>
+  </si>
+  <si>
+    <t>Player_192 (13)</t>
+  </si>
+  <si>
+    <t>Player_33 (23)</t>
+  </si>
+  <si>
+    <t>Player_86 (34)</t>
+  </si>
+  <si>
+    <t>Player_36 (21)</t>
+  </si>
+  <si>
+    <t>Player_133 (17)</t>
+  </si>
+  <si>
+    <t>Player_91 (19)</t>
+  </si>
+  <si>
+    <t>Player_94 (17)</t>
+  </si>
+  <si>
+    <t>Player_178 (21)</t>
+  </si>
+  <si>
+    <t>Player_98 (26)</t>
+  </si>
+  <si>
+    <t>Player_148 (13)</t>
+  </si>
+  <si>
+    <t>Player_73 (21)</t>
+  </si>
+  <si>
+    <t>Player_153 (21)</t>
+  </si>
+  <si>
+    <t>Player_169 (21)</t>
+  </si>
+  <si>
+    <t>Player_62 (13)</t>
+  </si>
+  <si>
+    <t>Player_95 (13)</t>
+  </si>
+  <si>
+    <t>Player_107 (21)</t>
+  </si>
+  <si>
+    <t>Player_46 (12)</t>
+  </si>
+  <si>
+    <t>Player_20 (31)</t>
+  </si>
+  <si>
+    <t>Player_137 (15)</t>
+  </si>
+  <si>
+    <t>Player_164 (22)</t>
+  </si>
+  <si>
+    <t>Player_121 (26)</t>
+  </si>
+  <si>
+    <t>Player_151 (22)</t>
+  </si>
+  <si>
+    <t>Player_187 (44)</t>
+  </si>
+  <si>
+    <t>Player_22 (6)</t>
+  </si>
+  <si>
+    <t>Player_141 (5)</t>
+  </si>
+  <si>
+    <t>Player_180 (11)</t>
+  </si>
+  <si>
+    <t>Player_80 (19)</t>
+  </si>
+  <si>
+    <t>Player_3 (19)</t>
+  </si>
+  <si>
+    <t>Player_124 (38)</t>
+  </si>
+  <si>
+    <t>Player_156 (41)</t>
+  </si>
+  <si>
+    <t>Player_131 (22)</t>
+  </si>
+  <si>
+    <t>Player_12 (22)</t>
+  </si>
+  <si>
+    <t>Player_93 (22)</t>
+  </si>
+  <si>
+    <t>Player_109 (22)</t>
+  </si>
+  <si>
+    <t>Player_103 (24)</t>
+  </si>
+  <si>
+    <t>Player_123 (23)</t>
   </si>
   <si>
     <t>Player_111 (23)</t>
   </si>
   <si>
-    <t>Player_165 (35)</t>
-  </si>
-  <si>
-    <t>Player_183 (17)</t>
-  </si>
-  <si>
-    <t>Player_178 (20)</t>
-  </si>
-  <si>
-    <t>Player_2 (25)</t>
-  </si>
-  <si>
-    <t>Player_7 (15)</t>
-  </si>
-  <si>
-    <t>Player_135 (15)</t>
-  </si>
-  <si>
-    <t>Player_145 (28)</t>
-  </si>
-  <si>
-    <t>Player_186 (31)</t>
-  </si>
-  <si>
-    <t>Player_75 (26)</t>
-  </si>
-  <si>
-    <t>Player_157 (28)</t>
-  </si>
-  <si>
-    <t>Player_94 (31)</t>
-  </si>
-  <si>
-    <t>Player_4 (21)</t>
-  </si>
-  <si>
-    <t>Player_117 (19)</t>
-  </si>
-  <si>
-    <t>Player_41 (15)</t>
-  </si>
-  <si>
-    <t>Player_62 (22)</t>
-  </si>
-  <si>
-    <t>Player_65 (19)</t>
-  </si>
-  <si>
-    <t>Player_119 (15)</t>
-  </si>
-  <si>
-    <t>Player_168 (15)</t>
-  </si>
-  <si>
-    <t>Player_90 (19)</t>
-  </si>
-  <si>
-    <t>Player_80 (36)</t>
-  </si>
-  <si>
-    <t>Player_114 (11)</t>
-  </si>
-  <si>
-    <t>Player_131 (24)</t>
-  </si>
-  <si>
-    <t>Player_175 (19)</t>
-  </si>
-  <si>
-    <t>Player_103 (15)</t>
-  </si>
-  <si>
-    <t>Player_169 (20)</t>
-  </si>
-  <si>
-    <t>Player_13 (20)</t>
-  </si>
-  <si>
-    <t>Player_93 (21)</t>
-  </si>
-  <si>
-    <t>Player_3 (19)</t>
-  </si>
-  <si>
-    <t>Player_74 (16)</t>
-  </si>
-  <si>
-    <t>Player_79 (24)</t>
-  </si>
-  <si>
-    <t>Player_63 (38)</t>
-  </si>
-  <si>
-    <t>Player_162 (15)</t>
-  </si>
-  <si>
-    <t>Player_66 (18)</t>
-  </si>
-  <si>
-    <t>Player_88 (18)</t>
-  </si>
-  <si>
-    <t>Player_106 (18)</t>
-  </si>
-  <si>
-    <t>Player_177 (15)</t>
-  </si>
-  <si>
-    <t>Player_98 (12)</t>
-  </si>
-  <si>
-    <t>Player_30 (27)</t>
-  </si>
-  <si>
-    <t>Player_95 (16)</t>
-  </si>
-  <si>
-    <t>Player_128 (15)</t>
-  </si>
-  <si>
-    <t>Player_164 (15)</t>
-  </si>
-  <si>
-    <t>Player_54 (25)</t>
-  </si>
-  <si>
-    <t>Player_151 (26)</t>
-  </si>
-  <si>
-    <t>Player_130 (21)</t>
-  </si>
-  <si>
-    <t>Player_36 (19)</t>
-  </si>
-  <si>
-    <t>Player_29 (19)</t>
-  </si>
-  <si>
-    <t>Player_83 (37)</t>
-  </si>
-  <si>
-    <t>Player_108 (37)</t>
-  </si>
-  <si>
-    <t>Player_17 (18)</t>
-  </si>
-  <si>
-    <t>Player_179 (16)</t>
-  </si>
-  <si>
-    <t>Player_195 (17)</t>
-  </si>
-  <si>
-    <t>Player_139 (9)</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Player_18 (37)</t>
-  </si>
-  <si>
-    <t>Player_100 (21)</t>
-  </si>
-  <si>
-    <t>Player_180 (28)</t>
-  </si>
-  <si>
-    <t>Player_148 (28)</t>
-  </si>
-  <si>
-    <t>Player_85 (34)</t>
-  </si>
-  <si>
-    <t>Player_198 (21)</t>
-  </si>
-  <si>
-    <t>Player_70 (26)</t>
-  </si>
-  <si>
-    <t>Player_89 (31)</t>
-  </si>
-  <si>
-    <t>Player_176 (31)</t>
-  </si>
-  <si>
-    <t>Player_33 (34)</t>
-  </si>
-  <si>
-    <t>Player_193 (32)</t>
-  </si>
-  <si>
-    <t>Player_146 (32)</t>
-  </si>
-  <si>
-    <t>Player_99 (34)</t>
-  </si>
-  <si>
-    <t>Player_69 (33)</t>
-  </si>
-  <si>
-    <t>Player_150 (36)</t>
-  </si>
-  <si>
-    <t>Player_122 (36)</t>
-  </si>
-  <si>
-    <t>Player_102 (18)</t>
-  </si>
-  <si>
-    <t>Player_6 (29)</t>
-  </si>
-  <si>
-    <t>Player_107 (33)</t>
-  </si>
-  <si>
-    <t>(*) Player_155 (35)</t>
-  </si>
-  <si>
-    <t>Player_64 (41)</t>
-  </si>
-  <si>
-    <t>Player_192 (12)</t>
-  </si>
-  <si>
-    <t>Player_156 (15)</t>
-  </si>
-  <si>
-    <t>Player_140 (15)</t>
-  </si>
-  <si>
-    <t>Player_5 (15)</t>
-  </si>
-  <si>
-    <t>Player_153 (15)</t>
-  </si>
-  <si>
-    <t>Player_173 (15)</t>
-  </si>
-  <si>
-    <t>Player_14 (21)</t>
-  </si>
-  <si>
-    <t>Player_20 (17)</t>
-  </si>
-  <si>
-    <t>(*) Player_101 (34)</t>
-  </si>
-  <si>
-    <t>Player_105 (27)</t>
-  </si>
-  <si>
-    <t>Player_142 (24)</t>
-  </si>
-  <si>
-    <t>Player_113 (29)</t>
-  </si>
-  <si>
-    <t>Player_35 (34)</t>
-  </si>
-  <si>
-    <t>Player_132 (36)</t>
-  </si>
-  <si>
-    <t>Player_22 (15)</t>
-  </si>
-  <si>
-    <t>Player_200 (36)</t>
-  </si>
-  <si>
-    <t>Player_187 (34)</t>
-  </si>
-  <si>
-    <t>Player_45 (35)</t>
-  </si>
-  <si>
-    <t>Player_51 (10)</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Player_116 (10)</t>
-  </si>
-  <si>
-    <t>Player_87 (14)</t>
-  </si>
-  <si>
-    <t>Player_172 (13)</t>
-  </si>
-  <si>
-    <t>Player_81 (13)</t>
-  </si>
-  <si>
-    <t>Player_118 (24)</t>
-  </si>
-  <si>
-    <t>Player_55 (34)</t>
-  </si>
-  <si>
-    <t>Player_12 (34)</t>
-  </si>
-  <si>
-    <t>Player_110 (33)</t>
-  </si>
-  <si>
-    <t>Player_42 (14)</t>
-  </si>
-  <si>
-    <t>Player_48 (27)</t>
-  </si>
-  <si>
-    <t>Player_144 (12)</t>
-  </si>
-  <si>
-    <t>Player_171 (21)</t>
-  </si>
-  <si>
-    <t>Player_125 (12)</t>
-  </si>
-  <si>
-    <t>Player_53 (23)</t>
-  </si>
-  <si>
-    <t>Player_190 (21)</t>
-  </si>
-  <si>
-    <t>Player_197 (28)</t>
-  </si>
-  <si>
-    <t>Player_10 (21)</t>
-  </si>
-  <si>
-    <t>Player_189 (22)</t>
-  </si>
-  <si>
-    <t>Player_143 (24)</t>
-  </si>
-  <si>
-    <t>Player_34 (34)</t>
-  </si>
-  <si>
-    <t>Player_163 (16)</t>
-  </si>
-  <si>
-    <t>Player_158 (14)</t>
-  </si>
-  <si>
-    <t>Player_78 (34)</t>
-  </si>
-  <si>
-    <t>Player_21 (23)</t>
-  </si>
-  <si>
-    <t>Player_40 (21)</t>
-  </si>
-  <si>
-    <t>Player_127 (21)</t>
-  </si>
-  <si>
-    <t>Player_191 (14)</t>
-  </si>
-  <si>
-    <t>Player_24 (16)</t>
-  </si>
-  <si>
-    <t>Player_152 (17)</t>
-  </si>
-  <si>
-    <t>Player_26 (16)</t>
-  </si>
-  <si>
-    <t>Player_44 (11)</t>
-  </si>
-  <si>
-    <t>Player_50 (22)</t>
-  </si>
-  <si>
-    <t>Player_194 (16)</t>
-  </si>
-  <si>
-    <t>Player_182 (21)</t>
-  </si>
-  <si>
-    <t>Player_37 (26)</t>
-  </si>
-  <si>
-    <t>Player_166 (24)</t>
-  </si>
-  <si>
-    <t>Player_120 (21)</t>
-  </si>
-  <si>
-    <t>Player_137 (24)</t>
-  </si>
-  <si>
-    <t>Player_1 (21)</t>
-  </si>
-  <si>
-    <t>Player_86 (14)</t>
-  </si>
-  <si>
-    <t>Player_25 (15)</t>
-  </si>
-  <si>
-    <t>Player_149 (29)</t>
-  </si>
-  <si>
-    <t>Player_138 (22)</t>
-  </si>
-  <si>
-    <t>Player_27 (22)</t>
-  </si>
-  <si>
-    <t>Player_28 (29)</t>
-  </si>
-  <si>
-    <t>Player_174 (22)</t>
-  </si>
-  <si>
-    <t>Player_91 (4)</t>
-  </si>
-  <si>
-    <t>Player_47 (5)</t>
-  </si>
-  <si>
-    <t>Player_112 (6)</t>
-  </si>
-  <si>
-    <t>Player_160 (20)</t>
-  </si>
-  <si>
-    <t>Player_147 (23)</t>
+    <t>Player_166 (15)</t>
+  </si>
+  <si>
+    <t>Player_198 (15)</t>
+  </si>
+  <si>
+    <t>Player_200 (16)</t>
+  </si>
+  <si>
+    <t>Player_189 (19)</t>
+  </si>
+  <si>
+    <t>Player_96 (21)</t>
+  </si>
+  <si>
+    <t>Player_52 (33)</t>
+  </si>
+  <si>
+    <t>Player_77 (16)</t>
+  </si>
+  <si>
+    <t>Player_150 (20)</t>
+  </si>
+  <si>
+    <t>Player_140 (20)</t>
+  </si>
+  <si>
+    <t>Player_29 (20)</t>
+  </si>
+  <si>
+    <t>Player_79 (16)</t>
+  </si>
+  <si>
+    <t>Player_37 (8)</t>
+  </si>
+  <si>
+    <t>Player_69 (10)</t>
+  </si>
+  <si>
+    <t>Player_45 (8)</t>
+  </si>
+  <si>
+    <t>Player_129 (20)</t>
+  </si>
+  <si>
+    <t>Player_116 (19)</t>
+  </si>
+  <si>
+    <t>Player_183 (13)</t>
+  </si>
+  <si>
+    <t>Player_184 (18)</t>
+  </si>
+  <si>
+    <t>Player_160 (26)</t>
+  </si>
+  <si>
+    <t>Player_114 (19)</t>
+  </si>
+  <si>
+    <t>Player_112 (26)</t>
+  </si>
+  <si>
+    <t>Player_65 (14)</t>
+  </si>
+  <si>
+    <t>Player_145 (27)</t>
+  </si>
+  <si>
+    <t>Player_168 (26)</t>
+  </si>
+  <si>
+    <t>Player_170 (25)</t>
+  </si>
+  <si>
+    <t>Player_108 (26)</t>
+  </si>
+  <si>
+    <t>Player_173 (27)</t>
+  </si>
+  <si>
+    <t>Player_159 (14)</t>
+  </si>
+  <si>
+    <t>Player_182 (3)</t>
   </si>
   <si>
     <t>Tennisschule Cyrill Keller - Junioren, Sommertraining</t>
@@ -1446,7 +1443,7 @@
   <cols>
     <col min="1" max="1" width="21.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="3.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="3.34375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="3.265625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="21.69140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1508,7 +1505,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="3">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2"/>
@@ -1671,7 +1668,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24"/>
+    <row r="24">
+      <c r="Y24" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB24" t="n" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
     <row r="25"/>
     <row r="26"/>
     <row r="27"/>
@@ -1729,16 +1739,16 @@
     </row>
     <row r="34">
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Z34" t="n">
         <v>1.0</v>
       </c>
       <c r="AA34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AB34" t="n" s="2">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="35"/>
@@ -1798,16 +1808,16 @@
     </row>
     <row r="44">
       <c r="Y44" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Z44" t="n">
         <v>1.0</v>
       </c>
       <c r="AA44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AB44" t="n" s="2">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="45"/>
@@ -1867,16 +1877,16 @@
     </row>
     <row r="54">
       <c r="Y54" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Z54" t="n">
         <v>1.0</v>
       </c>
       <c r="AA54" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="AB54" t="n" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -1936,16 +1946,16 @@
     </row>
     <row r="64">
       <c r="Y64" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Z64" t="n">
         <v>1.0</v>
       </c>
       <c r="AA64" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AB64" t="n" s="2">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="65"/>
@@ -2005,78 +2015,54 @@
     </row>
     <row r="74">
       <c r="Y74" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA74" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="AB74" t="n" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC74" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AD74" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE74" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="AF74" t="n" s="2">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="AG74" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AH74" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ74" t="n" s="2">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="75">
       <c r="Y75" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Z75" t="n">
         <v>2.0</v>
       </c>
       <c r="AA75" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="AB75" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF75" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="AG75" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AI75" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ75" t="n" s="2">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="76"/>
@@ -2134,71 +2120,167 @@
       </c>
     </row>
     <row r="84">
+      <c r="Y84" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB84" t="n" s="2">
+        <v>17.0</v>
+      </c>
       <c r="AC84" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="AD84" t="n">
         <v>4.0</v>
       </c>
       <c r="AE84" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF84" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ84" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>404</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ84" t="n" s="2">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="Y85" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB85" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF85" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ85" t="n" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="Y86" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB86" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF86" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI86" t="s">
         <v>241</v>
       </c>
-      <c r="AF84" t="n" s="2">
+      <c r="AJ86" t="n" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="Y87" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB87" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="AG84" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ84" t="n" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="AC85" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF85" t="n" s="2">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="AC86" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF86" t="n" s="2">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="87">
       <c r="AC87" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AD87" t="n">
         <v>4.0</v>
       </c>
       <c r="AE87" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF87" t="n" s="2">
-        <v>10.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ87" t="n" s="2">
+        <v>14.0</v>
       </c>
     </row>
     <row r="88"/>
@@ -2255,40 +2337,52 @@
     </row>
     <row r="94">
       <c r="Y94" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="Z94" t="n">
         <v>4.0</v>
       </c>
       <c r="AA94" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AB94" t="n" s="2">
-        <v>17.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF94" t="n" s="2">
+        <v>16.0</v>
       </c>
       <c r="AG94" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="AH94" t="n">
         <v>4.0</v>
       </c>
       <c r="AI94" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AJ94" t="n" s="2">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="AW94" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="AX94" t="n">
         <v>1.0</v>
       </c>
       <c r="AY94" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AZ94" t="n" s="2">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="BA94" t="s">
         <v>406</v>
@@ -2297,19 +2391,19 @@
         <v>1.0</v>
       </c>
       <c r="BC94" t="s">
-        <v>402</v>
+        <v>266</v>
       </c>
       <c r="BD94" t="n" s="2">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="BE94" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="BF94" t="n">
         <v>1.0</v>
       </c>
       <c r="BG94" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="BH94" t="n" s="2">
         <v>13.0</v>
@@ -2317,44 +2411,116 @@
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="Z95" t="n">
         <v>4.0</v>
       </c>
       <c r="AA95" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AB95" t="n" s="2">
-        <v>17.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF95" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ95" t="n" s="2">
+        <v>11.0</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="Z96" t="n">
         <v>4.0</v>
       </c>
       <c r="AA96" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AB96" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF96" t="n" s="2">
         <v>17.0</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ96" t="n" s="2">
+        <v>11.0</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Z97" t="n">
         <v>4.0</v>
       </c>
       <c r="AA97" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="AB97" t="n" s="2">
-        <v>17.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF97" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ97" t="n" s="2">
+        <v>12.0</v>
       </c>
     </row>
     <row r="98"/>
@@ -2411,214 +2577,178 @@
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="Z104" t="n">
         <v>4.0</v>
       </c>
       <c r="AA104" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AB104" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF104" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="AC104" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF104" t="n" s="2">
-        <v>15.0</v>
-      </c>
       <c r="AG104" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="AH104" t="n">
         <v>4.0</v>
       </c>
       <c r="AI104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ104" t="n" s="2">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="AW104" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AX104" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AY104" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AZ104" t="n" s="2">
-        <v>13.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="BA104" t="s">
+        <v>410</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC104" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD104" t="n" s="2">
+        <v>9.0</v>
       </c>
       <c r="BE104" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BF104" t="n">
         <v>1.0</v>
       </c>
       <c r="BG104" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="BH104" t="n" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="Z105" t="n">
         <v>4.0</v>
       </c>
       <c r="AA105" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AB105" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF105" t="n" s="2">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="AG105" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="AH105" t="n">
         <v>4.0</v>
       </c>
       <c r="AI105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ105" t="n" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="AW105" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AX105" t="n">
         <v>4.0</v>
       </c>
       <c r="AY105" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="AZ105" t="n" s="2">
-        <v>15.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="BA105" t="s">
+        <v>411</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC105" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD105" t="n" s="2">
+        <v>8.0</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="Z106" t="n">
         <v>4.0</v>
       </c>
       <c r="AA106" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AB106" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AC106" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF106" t="n" s="2">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="AG106" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="AH106" t="n">
         <v>4.0</v>
       </c>
       <c r="AI106" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="AJ106" t="n" s="2">
         <v>13.0</v>
       </c>
-      <c r="AW106" t="s">
-        <v>409</v>
-      </c>
-      <c r="AX106" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY106" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ106" t="n" s="2">
-        <v>16.0</v>
-      </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="Z107" t="n">
         <v>4.0</v>
       </c>
       <c r="AA107" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AB107" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AC107" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF107" t="n" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="AG107" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="AH107" t="n">
         <v>4.0</v>
       </c>
       <c r="AI107" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="AJ107" t="n" s="2">
         <v>10.0</v>
-      </c>
-      <c r="AW107" t="s">
-        <v>410</v>
-      </c>
-      <c r="AX107" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY107" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ107" t="n" s="2">
-        <v>13.0</v>
       </c>
     </row>
     <row r="108"/>
@@ -2674,130 +2804,178 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" t="n" s="2">
+        <v>14.0</v>
+      </c>
       <c r="M114" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N114" t="n">
         <v>1.0</v>
       </c>
       <c r="O114" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P114" t="n" s="2">
-        <v>8.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>276</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S114" t="s">
+        <v>262</v>
+      </c>
+      <c r="T114" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="U114" t="s">
+        <v>277</v>
+      </c>
+      <c r="V114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>241</v>
+      </c>
+      <c r="X114" t="n" s="2">
+        <v>15.0</v>
       </c>
       <c r="Y114" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="Z114" t="n">
         <v>4.0</v>
       </c>
       <c r="AA114" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="AB114" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF114" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ114" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN114" t="n" s="2">
         <v>15.0</v>
       </c>
-      <c r="AC114" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE114" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF114" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="AG114" t="s">
-        <v>340</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI114" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ114" t="n" s="2">
-        <v>10.0</v>
-      </c>
       <c r="AW114" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AX114" t="n">
         <v>4.0</v>
       </c>
       <c r="AY114" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="AZ114" t="n" s="2">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="BA114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BB114" t="n">
         <v>4.0</v>
       </c>
       <c r="BC114" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="BD114" t="n" s="2">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="BE114" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="BF114" t="n">
         <v>4.0</v>
       </c>
       <c r="BG114" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="BH114" t="n" s="2">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="Z115" t="n">
         <v>4.0</v>
       </c>
       <c r="AA115" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AB115" t="n" s="2">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC115" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="AD115" t="n">
         <v>4.0</v>
       </c>
       <c r="AE115" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AF115" t="n" s="2">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="AG115" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AH115" t="n">
         <v>4.0</v>
       </c>
       <c r="AI115" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AJ115" t="n" s="2">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW115" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AX115" t="n">
         <v>4.0</v>
@@ -2806,134 +2984,146 @@
         <v>241</v>
       </c>
       <c r="AZ115" t="n" s="2">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="BA115" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BB115" t="n">
         <v>4.0</v>
       </c>
       <c r="BC115" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="BD115" t="n" s="2">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="BE115" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="BF115" t="n">
         <v>4.0</v>
       </c>
       <c r="BG115" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="BH115" t="n" s="2">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="Z116" t="n">
         <v>4.0</v>
       </c>
       <c r="AA116" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="AB116" t="n" s="2">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC116" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AD116" t="n">
         <v>4.0</v>
       </c>
       <c r="AE116" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AF116" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ116" t="n" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="AW116" t="s">
+        <v>415</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY116" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ116" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="AG116" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI116" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ116" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AW116" t="s">
-        <v>414</v>
-      </c>
-      <c r="AX116" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY116" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ116" t="n" s="2">
-        <v>18.0</v>
+      <c r="BA116" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC116" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD116" t="n" s="2">
+        <v>11.0</v>
       </c>
       <c r="BE116" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="BF116" t="n">
         <v>4.0</v>
       </c>
       <c r="BG116" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="BH116" t="n" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="Z117" t="n">
         <v>4.0</v>
       </c>
       <c r="AA117" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AB117" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="AC117" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="AD117" t="n">
         <v>4.0</v>
       </c>
       <c r="AE117" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AF117" t="n" s="2">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="AG117" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="AH117" t="n">
         <v>4.0</v>
       </c>
       <c r="AI117" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AJ117" t="n" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="AW117" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AX117" t="n">
         <v>4.0</v>
@@ -2942,19 +3132,31 @@
         <v>241</v>
       </c>
       <c r="AZ117" t="n" s="2">
-        <v>16.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="BA117" t="s">
+        <v>420</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC117" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD117" t="n" s="2">
+        <v>12.0</v>
       </c>
       <c r="BE117" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="BF117" t="n">
         <v>4.0</v>
       </c>
       <c r="BG117" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="BH117" t="n" s="2">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="118"/>
@@ -3011,469 +3213,493 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B124" t="n">
         <v>4.0</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D124" t="n" s="2">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F124" t="n">
         <v>2.0</v>
       </c>
       <c r="G124" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H124" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>249</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>250</v>
+      </c>
+      <c r="L124" t="n" s="2">
         <v>15.0</v>
       </c>
-      <c r="I124" t="s">
-        <v>246</v>
-      </c>
-      <c r="J124" t="n">
+      <c r="M124" t="s">
+        <v>278</v>
+      </c>
+      <c r="N124" t="n">
         <v>2.0</v>
       </c>
-      <c r="K124" t="s">
-        <v>247</v>
-      </c>
-      <c r="L124" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="M124" t="s">
+      <c r="O124" t="s">
+        <v>241</v>
+      </c>
+      <c r="P124" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>280</v>
+      </c>
+      <c r="R124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S124" t="s">
         <v>271</v>
       </c>
-      <c r="N124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O124" t="s">
-        <v>272</v>
-      </c>
-      <c r="P124" t="n" s="2">
+      <c r="T124" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="U124" t="s">
+        <v>284</v>
+      </c>
+      <c r="V124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W124" t="s">
+        <v>262</v>
+      </c>
+      <c r="X124" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB124" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF124" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ124" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="Q124" t="s">
-        <v>275</v>
-      </c>
-      <c r="R124" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S124" t="s">
-        <v>261</v>
-      </c>
-      <c r="T124" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U124" t="s">
-        <v>277</v>
-      </c>
-      <c r="V124" t="n">
+      <c r="AK124" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL124" t="n">
         <v>1.0</v>
       </c>
-      <c r="W124" t="s">
-        <v>244</v>
-      </c>
-      <c r="X124" t="n" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="Y124" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB124" t="n" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF124" t="n" s="2">
+      <c r="AM124" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN124" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="AG124" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI124" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ124" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="AK124" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM124" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN124" t="n" s="2">
-        <v>14.0</v>
-      </c>
       <c r="AO124" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AP124" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ124" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AR124" t="n" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AS124" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AT124" t="n">
         <v>1.0</v>
       </c>
       <c r="AU124" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="AV124" t="n" s="2">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="AW124" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AX124" t="n">
         <v>4.0</v>
       </c>
       <c r="AY124" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AZ124" t="n" s="2">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="BA124" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="BB124" t="n">
         <v>4.0</v>
       </c>
       <c r="BC124" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="BD124" t="n" s="2">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="BE124" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BF124" t="n">
         <v>4.0</v>
       </c>
       <c r="BG124" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BH124" t="n" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
       </c>
       <c r="C125" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>279</v>
+      </c>
+      <c r="N125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>266</v>
+      </c>
+      <c r="P125" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>281</v>
+      </c>
+      <c r="R125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S125" t="s">
+        <v>271</v>
+      </c>
+      <c r="T125" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="U125" t="s">
+        <v>285</v>
+      </c>
+      <c r="V125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W125" t="s">
+        <v>262</v>
+      </c>
+      <c r="X125" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB125" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF125" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ125" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY125" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ125" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="BA125" t="s">
+        <v>429</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC125" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD125" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="BE125" t="s">
+        <v>432</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG125" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH125" t="n" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>243</v>
+      </c>
+      <c r="D126" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>282</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S126" t="s">
+        <v>271</v>
+      </c>
+      <c r="T126" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="U126" t="s">
+        <v>286</v>
+      </c>
+      <c r="V126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W126" t="s">
         <v>241</v>
       </c>
-      <c r="D125" t="n" s="2">
+      <c r="X126" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB126" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="E125" t="s">
-        <v>245</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>244</v>
-      </c>
-      <c r="H125" t="n" s="2">
+      <c r="AC126" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF126" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ126" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="AW126" t="s">
+        <v>426</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY126" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ126" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="BA126" t="s">
+        <v>430</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC126" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD126" t="n" s="2">
         <v>12.0</v>
       </c>
-      <c r="M125" t="s">
-        <v>273</v>
-      </c>
-      <c r="N125" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O125" t="s">
-        <v>274</v>
-      </c>
-      <c r="P125" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>276</v>
-      </c>
-      <c r="R125" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S125" t="s">
-        <v>274</v>
-      </c>
-      <c r="T125" t="n" s="2">
+      <c r="BE126" t="s">
+        <v>433</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG126" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH126" t="n" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>246</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>243</v>
+      </c>
+      <c r="D127" t="n" s="2">
         <v>10.0</v>
       </c>
-      <c r="Y125" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA125" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB125" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="AC125" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE125" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF125" t="n" s="2">
+      <c r="Q127" t="s">
+        <v>283</v>
+      </c>
+      <c r="R127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S127" t="s">
+        <v>271</v>
+      </c>
+      <c r="T127" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="U127" t="s">
+        <v>287</v>
+      </c>
+      <c r="V127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W127" t="s">
+        <v>266</v>
+      </c>
+      <c r="X127" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB127" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF127" t="n" s="2">
         <v>12.0</v>
       </c>
-      <c r="AG125" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI125" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ125" t="n" s="2">
+      <c r="AW127" t="s">
+        <v>427</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY127" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ127" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="AK125" t="s">
-        <v>379</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM125" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN125" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="AW125" t="s">
-        <v>423</v>
-      </c>
-      <c r="AX125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY125" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ125" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="BA125" t="s">
-        <v>427</v>
-      </c>
-      <c r="BB125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC125" t="s">
-        <v>266</v>
-      </c>
-      <c r="BD125" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="BE125" t="s">
-        <v>431</v>
-      </c>
-      <c r="BF125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG125" t="s">
-        <v>249</v>
-      </c>
-      <c r="BH125" t="n" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="Y126" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB126" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="AC126" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE126" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF126" t="n" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="AG126" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI126" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ126" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="AK126" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM126" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN126" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="AW126" t="s">
-        <v>424</v>
-      </c>
-      <c r="AX126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY126" t="s">
-        <v>244</v>
-      </c>
-      <c r="AZ126" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="BA126" t="s">
-        <v>428</v>
-      </c>
-      <c r="BB126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC126" t="s">
-        <v>266</v>
-      </c>
-      <c r="BD126" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="BE126" t="s">
-        <v>432</v>
-      </c>
-      <c r="BF126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG126" t="s">
-        <v>249</v>
-      </c>
-      <c r="BH126" t="n" s="2">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="Y127" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB127" t="n" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="AC127" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF127" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="AG127" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI127" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ127" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AK127" t="s">
-        <v>380</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM127" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN127" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="AW127" t="s">
-        <v>425</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY127" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ127" t="n" s="2">
-        <v>11.0</v>
-      </c>
       <c r="BA127" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="BB127" t="n">
         <v>4.0</v>
@@ -3482,16 +3708,16 @@
         <v>266</v>
       </c>
       <c r="BD127" t="n" s="2">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="BE127" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BF127" t="n">
         <v>4.0</v>
       </c>
       <c r="BG127" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BH127" t="n" s="2">
         <v>14.0</v>
@@ -3551,237 +3777,237 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B134" t="n">
         <v>4.0</v>
       </c>
       <c r="C134" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D134" t="n" s="2">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F134" t="n">
         <v>4.0</v>
       </c>
       <c r="G134" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H134" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="I134" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J134" t="n">
         <v>4.0</v>
       </c>
       <c r="K134" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="L134" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>288</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>243</v>
+      </c>
+      <c r="P134" t="n" s="2">
         <v>15.0</v>
       </c>
-      <c r="M134" t="s">
-        <v>278</v>
-      </c>
-      <c r="N134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O134" t="s">
-        <v>261</v>
-      </c>
-      <c r="P134" t="n" s="2">
+      <c r="Q134" t="s">
+        <v>292</v>
+      </c>
+      <c r="R134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S134" t="s">
+        <v>293</v>
+      </c>
+      <c r="T134" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="U134" t="s">
+        <v>297</v>
+      </c>
+      <c r="V134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W134" t="s">
+        <v>254</v>
+      </c>
+      <c r="X134" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="Q134" t="s">
-        <v>282</v>
-      </c>
-      <c r="R134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S134" t="s">
-        <v>249</v>
-      </c>
-      <c r="T134" t="n" s="2">
+      <c r="Y134" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB134" t="n" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF134" t="n" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ134" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN134" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="AO134" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ134" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR134" t="n" s="2">
         <v>9.0</v>
       </c>
-      <c r="U134" t="s">
-        <v>284</v>
-      </c>
-      <c r="V134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W134" t="s">
-        <v>241</v>
-      </c>
-      <c r="X134" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="Y134" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z134" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AA134" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB134" t="n" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="AG134" t="s">
-        <v>357</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI134" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ134" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="AK134" t="s">
-        <v>383</v>
-      </c>
-      <c r="AL134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM134" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN134" t="n" s="2">
+      <c r="AW134" t="s">
+        <v>435</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY134" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ134" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="BA134" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC134" t="s">
+        <v>293</v>
+      </c>
+      <c r="BD134" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="AO134" t="s">
-        <v>386</v>
-      </c>
-      <c r="AP134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AQ134" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR134" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="AS134" t="s">
-        <v>390</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AU134" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV134" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="AW134" t="s">
-        <v>434</v>
-      </c>
-      <c r="AX134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY134" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ134" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="BA134" t="s">
-        <v>437</v>
-      </c>
-      <c r="BB134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC134" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD134" t="n" s="2">
-        <v>15.0</v>
-      </c>
       <c r="BE134" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BF134" t="n">
         <v>4.0</v>
       </c>
       <c r="BG134" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="BH134" t="n" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
       </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D135" t="n" s="2">
         <v>16.0</v>
       </c>
       <c r="E135" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F135" t="n">
         <v>4.0</v>
       </c>
       <c r="G135" t="s">
+        <v>243</v>
+      </c>
+      <c r="H135" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>263</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K135" t="s">
         <v>241</v>
-      </c>
-      <c r="H135" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="I135" t="s">
-        <v>258</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K135" t="s">
-        <v>259</v>
       </c>
       <c r="L135" t="n" s="2">
         <v>14.0</v>
       </c>
       <c r="M135" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="N135" t="n">
         <v>4.0</v>
       </c>
       <c r="O135" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="P135" t="n" s="2">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q135" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="R135" t="n">
         <v>4.0</v>
       </c>
       <c r="S135" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="T135" t="n" s="2">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="U135" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="V135" t="n">
         <v>4.0</v>
@@ -3793,231 +4019,183 @@
         <v>17.0</v>
       </c>
       <c r="Y135" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="Z135" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AB135" t="n" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="AG135" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="AH135" t="n">
         <v>4.0</v>
       </c>
       <c r="AI135" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="AJ135" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AK135" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AM135" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN135" t="n" s="2">
         <v>13.0</v>
       </c>
-      <c r="AK135" t="s">
-        <v>384</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM135" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN135" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="AO135" t="s">
-        <v>387</v>
-      </c>
-      <c r="AP135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AQ135" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR135" t="n" s="2">
+      <c r="AW135" t="s">
+        <v>436</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY135" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ135" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="BA135" t="s">
+        <v>439</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC135" t="s">
+        <v>293</v>
+      </c>
+      <c r="BD135" t="n" s="2">
         <v>12.0</v>
       </c>
-      <c r="AS135" t="s">
-        <v>391</v>
-      </c>
-      <c r="AT135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AU135" t="s">
-        <v>244</v>
-      </c>
-      <c r="AV135" t="n" s="2">
+      <c r="BE135" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG135" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH135" t="n" s="2">
         <v>14.0</v>
-      </c>
-      <c r="AW135" t="s">
-        <v>435</v>
-      </c>
-      <c r="AX135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY135" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ135" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="BA135" t="s">
-        <v>438</v>
-      </c>
-      <c r="BB135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC135" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD135" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="BE135" t="s">
-        <v>442</v>
-      </c>
-      <c r="BF135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG135" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH135" t="n" s="2">
-        <v>15.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B136" t="n">
         <v>4.0</v>
       </c>
       <c r="C136" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D136" t="n" s="2">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F136" t="n">
         <v>4.0</v>
       </c>
       <c r="G136" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H136" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="I136" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J136" t="n">
         <v>4.0</v>
       </c>
       <c r="K136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L136" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>290</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>243</v>
+      </c>
+      <c r="P136" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>295</v>
+      </c>
+      <c r="R136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S136" t="s">
+        <v>293</v>
+      </c>
+      <c r="T136" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="M136" t="s">
-        <v>280</v>
-      </c>
-      <c r="N136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O136" t="s">
-        <v>261</v>
-      </c>
-      <c r="P136" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="U136" t="s">
-        <v>286</v>
-      </c>
-      <c r="V136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W136" t="s">
-        <v>241</v>
-      </c>
-      <c r="X136" t="n" s="2">
-        <v>11.0</v>
-      </c>
       <c r="AG136" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="AH136" t="n">
         <v>4.0</v>
       </c>
       <c r="AI136" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="AJ136" t="n" s="2">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="AK136" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="AL136" t="n">
         <v>4.0</v>
       </c>
       <c r="AM136" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AN136" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="AO136" t="s">
-        <v>388</v>
-      </c>
-      <c r="AP136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AQ136" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR136" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AS136" t="s">
-        <v>392</v>
-      </c>
-      <c r="AT136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AU136" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV136" t="n" s="2">
-        <v>17.0</v>
-      </c>
       <c r="AW136" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="AX136" t="n">
         <v>4.0</v>
       </c>
       <c r="AY136" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="AZ136" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="BA136" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BB136" t="n">
         <v>4.0</v>
       </c>
       <c r="BC136" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="BD136" t="n" s="2">
         <v>13.0</v>
@@ -4029,156 +4207,108 @@
         <v>4.0</v>
       </c>
       <c r="BG136" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="BH136" t="n" s="2">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>256</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C137" t="s">
         <v>252</v>
       </c>
-      <c r="B137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>249</v>
-      </c>
       <c r="D137" t="n" s="2">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="E137" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F137" t="n">
         <v>4.0</v>
       </c>
       <c r="G137" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H137" t="n" s="2">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="I137" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J137" t="n">
         <v>4.0</v>
       </c>
       <c r="K137" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L137" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>291</v>
+      </c>
+      <c r="N137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O137" t="s">
+        <v>243</v>
+      </c>
+      <c r="P137" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="M137" t="s">
-        <v>281</v>
-      </c>
-      <c r="N137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O137" t="s">
-        <v>244</v>
-      </c>
-      <c r="P137" t="n" s="2">
+      <c r="Q137" t="s">
+        <v>296</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S137" t="s">
+        <v>293</v>
+      </c>
+      <c r="T137" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AG137" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ137" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="U137" t="s">
-        <v>287</v>
-      </c>
-      <c r="V137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W137" t="s">
-        <v>241</v>
-      </c>
-      <c r="X137" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="AG137" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI137" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ137" t="n" s="2">
-        <v>13.0</v>
-      </c>
       <c r="AK137" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="AL137" t="n">
         <v>4.0</v>
       </c>
       <c r="AM137" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AN137" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="AO137" t="s">
-        <v>389</v>
-      </c>
-      <c r="AP137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AQ137" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR137" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="AS137" t="s">
-        <v>393</v>
-      </c>
-      <c r="AT137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AU137" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV137" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="AW137" t="s">
-        <v>436</v>
-      </c>
-      <c r="AX137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY137" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ137" t="n" s="2">
-        <v>11.0</v>
-      </c>
       <c r="BA137" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BB137" t="n">
         <v>4.0</v>
       </c>
       <c r="BC137" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="BD137" t="n" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="BE137" t="s">
-        <v>384</v>
-      </c>
-      <c r="BF137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG137" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH137" t="n" s="2">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="138"/>
@@ -4235,76 +4365,76 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B144" t="n">
         <v>8.0</v>
       </c>
       <c r="C144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D144" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>270</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>271</v>
+      </c>
+      <c r="H144" t="n" s="2">
         <v>11.0</v>
       </c>
-      <c r="E144" t="s">
-        <v>265</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G144" t="s">
-        <v>266</v>
-      </c>
-      <c r="H144" t="n" s="2">
-        <v>13.0</v>
-      </c>
       <c r="M144" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="N144" t="n">
         <v>8.0</v>
       </c>
       <c r="O144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P144" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="Q144" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="R144" t="n">
         <v>4.0</v>
       </c>
       <c r="S144" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="T144" t="n" s="2">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y144" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="Z144" t="n">
         <v>8.0</v>
       </c>
       <c r="AA144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB144" t="n" s="2">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC144" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="AD144" t="n">
         <v>8.0</v>
       </c>
       <c r="AE144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF144" t="n" s="2">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="AK144" t="s">
         <v>394</v>
@@ -4313,120 +4443,132 @@
         <v>8.0</v>
       </c>
       <c r="AM144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN144" t="n" s="2">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="AO144" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AP144" t="n">
         <v>4.0</v>
       </c>
       <c r="AQ144" t="s">
-        <v>402</v>
+        <v>241</v>
       </c>
       <c r="AR144" t="n" s="2">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW144" t="s">
-        <v>288</v>
+        <v>444</v>
       </c>
       <c r="AX144" t="n">
         <v>8.0</v>
       </c>
       <c r="AY144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AZ144" t="n" s="2">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="BA144" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="BB144" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="BC144" t="s">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="BD144" t="n" s="2">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="BE144" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BF144" t="n">
         <v>4.0</v>
       </c>
       <c r="BG144" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="BH144" t="n" s="2">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>268</v>
+      </c>
+      <c r="D145" t="n" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F145" t="n">
         <v>4.0</v>
       </c>
       <c r="G145" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H145" t="n" s="2">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="M145" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="N145" t="n">
         <v>8.0</v>
       </c>
       <c r="O145" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P145" t="n" s="2">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q145" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="R145" t="n">
         <v>4.0</v>
       </c>
       <c r="S145" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="T145" t="n" s="2">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y145" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="Z145" t="n">
         <v>8.0</v>
       </c>
       <c r="AA145" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB145" t="n" s="2">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC145" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="AD145" t="n">
         <v>8.0</v>
       </c>
       <c r="AE145" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF145" t="n" s="2">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="AK145" t="s">
         <v>395</v>
@@ -4435,10 +4577,10 @@
         <v>8.0</v>
       </c>
       <c r="AM145" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN145" t="n" s="2">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="AO145" t="s">
         <v>403</v>
@@ -4447,108 +4589,84 @@
         <v>4.0</v>
       </c>
       <c r="AQ145" t="s">
-        <v>402</v>
+        <v>262</v>
       </c>
       <c r="AR145" t="n" s="2">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW145" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="AX145" t="n">
         <v>8.0</v>
       </c>
       <c r="AY145" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AZ145" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="BA145" t="s">
-        <v>450</v>
-      </c>
-      <c r="BB145" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC145" t="s">
-        <v>361</v>
-      </c>
-      <c r="BD145" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="BE145" t="s">
-        <v>452</v>
-      </c>
-      <c r="BF145" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG145" t="s">
-        <v>307</v>
-      </c>
-      <c r="BH145" t="n" s="2">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F146" t="n">
         <v>4.0</v>
       </c>
       <c r="G146" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H146" t="n" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="M146" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="N146" t="n">
         <v>8.0</v>
       </c>
       <c r="O146" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P146" t="n" s="2">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="Q146" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="R146" t="n">
         <v>4.0</v>
       </c>
       <c r="S146" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="T146" t="n" s="2">
         <v>11.0</v>
       </c>
       <c r="Y146" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="Z146" t="n">
         <v>8.0</v>
       </c>
       <c r="AA146" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB146" t="n" s="2">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC146" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="AD146" t="n">
         <v>8.0</v>
       </c>
       <c r="AE146" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF146" t="n" s="2">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AK146" t="s">
         <v>396</v>
@@ -4557,108 +4675,60 @@
         <v>8.0</v>
       </c>
       <c r="AM146" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN146" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="AO146" t="s">
-        <v>404</v>
-      </c>
-      <c r="AP146" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AQ146" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR146" t="n" s="2">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW146" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AX146" t="n">
         <v>8.0</v>
       </c>
       <c r="AY146" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AZ146" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="BE146" t="s">
-        <v>306</v>
-      </c>
-      <c r="BF146" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG146" t="s">
-        <v>307</v>
-      </c>
-      <c r="BH146" t="n" s="2">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F147" t="n">
         <v>4.0</v>
       </c>
       <c r="G147" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H147" t="n" s="2">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="M147" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="N147" t="n">
         <v>8.0</v>
       </c>
       <c r="O147" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P147" t="n" s="2">
         <v>17.0</v>
       </c>
-      <c r="Q147" t="s">
-        <v>299</v>
-      </c>
-      <c r="R147" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S147" t="s">
-        <v>261</v>
-      </c>
-      <c r="T147" t="n" s="2">
-        <v>10.0</v>
-      </c>
       <c r="Y147" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="Z147" t="n">
         <v>8.0</v>
       </c>
       <c r="AA147" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB147" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="AC147" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD147" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE147" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF147" t="n" s="2">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="AK147" t="s">
         <v>397</v>
@@ -4667,294 +4737,186 @@
         <v>8.0</v>
       </c>
       <c r="AM147" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN147" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="AO147" t="s">
-        <v>405</v>
-      </c>
-      <c r="AP147" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AQ147" t="s">
-        <v>402</v>
-      </c>
-      <c r="AR147" t="n" s="2">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="AW147" t="s">
-        <v>263</v>
+        <v>447</v>
       </c>
       <c r="AX147" t="n">
         <v>8.0</v>
       </c>
       <c r="AY147" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AZ147" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="BE147" t="s">
-        <v>453</v>
-      </c>
-      <c r="BF147" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG147" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH147" t="n" s="2">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="148">
       <c r="M148" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="N148" t="n">
         <v>8.0</v>
       </c>
       <c r="O148" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P148" t="n" s="2">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y148" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="Z148" t="n">
         <v>8.0</v>
       </c>
       <c r="AA148" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB148" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AC148" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD148" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE148" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF148" t="n" s="2">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="AK148" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="AL148" t="n">
         <v>8.0</v>
       </c>
       <c r="AM148" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN148" t="n" s="2">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW148" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AX148" t="n">
         <v>8.0</v>
       </c>
       <c r="AY148" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AZ148" t="n" s="2">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="M149" t="s">
-        <v>293</v>
-      </c>
-      <c r="N149" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O149" t="s">
-        <v>264</v>
-      </c>
-      <c r="P149" t="n" s="2">
-        <v>8.0</v>
-      </c>
       <c r="Y149" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="Z149" t="n">
         <v>8.0</v>
       </c>
       <c r="AA149" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB149" t="n" s="2">
         <v>17.0</v>
       </c>
-      <c r="AC149" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD149" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE149" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF149" t="n" s="2">
-        <v>15.0</v>
-      </c>
       <c r="AK149" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL149" t="n">
         <v>8.0</v>
       </c>
       <c r="AM149" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN149" t="n" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="AW149" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AX149" t="n">
         <v>8.0</v>
       </c>
       <c r="AY149" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AZ149" t="n" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="M150" t="s">
-        <v>294</v>
-      </c>
-      <c r="N150" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O150" t="s">
-        <v>264</v>
-      </c>
-      <c r="P150" t="n" s="2">
-        <v>17.0</v>
-      </c>
       <c r="Y150" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="Z150" t="n">
         <v>8.0</v>
       </c>
       <c r="AA150" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB150" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AC150" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE150" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF150" t="n" s="2">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="AK150" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL150" t="n">
         <v>8.0</v>
       </c>
       <c r="AM150" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN150" t="n" s="2">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="AW150" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AX150" t="n">
         <v>8.0</v>
       </c>
       <c r="AY150" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AZ150" t="n" s="2">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="M151" t="s">
-        <v>295</v>
-      </c>
-      <c r="N151" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O151" t="s">
-        <v>264</v>
-      </c>
-      <c r="P151" t="n" s="2">
-        <v>15.0</v>
-      </c>
       <c r="Y151" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="Z151" t="n">
         <v>8.0</v>
       </c>
       <c r="AA151" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB151" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AC151" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD151" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE151" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF151" t="n" s="2">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="AK151" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL151" t="n">
         <v>8.0</v>
       </c>
       <c r="AM151" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN151" t="n" s="2">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW151" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AX151" t="n">
         <v>8.0</v>
       </c>
       <c r="AY151" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AZ151" t="n" s="2">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="152"/>

--- a/Sommertraining_Einteilung.xlsx
+++ b/Sommertraining_Einteilung.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="460">
   <si>
     <t>Mo - 6h - Court 1 (1)</t>
   </si>
@@ -734,643 +734,661 @@
     <t>Fr - 21h - Court 3 (240)</t>
   </si>
   <si>
-    <t>Player_134 (38)</t>
+    <t>Player_194 (4)</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>(*) Player_133 (21)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Player_23 (13)</t>
+  </si>
+  <si>
+    <t>Player_104 (13)</t>
+  </si>
+  <si>
+    <t>Player_122 (13)</t>
+  </si>
+  <si>
+    <t>Player_192 (29)</t>
+  </si>
+  <si>
+    <t>Player_19 (32)</t>
+  </si>
+  <si>
+    <t>Player_83 (32)</t>
+  </si>
+  <si>
+    <t>Player_12 (32)</t>
+  </si>
+  <si>
+    <t>Player_96 (35)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Player_164 (34)</t>
+  </si>
+  <si>
+    <t>Player_16 (27)</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Player_179 (11)</t>
+  </si>
+  <si>
+    <t>Player_85 (6)</t>
+  </si>
+  <si>
+    <t>Player_44 (14)</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Player_64 (7)</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Player_147 (43)</t>
   </si>
   <si>
     <t>R6</t>
   </si>
   <si>
-    <t>Player_81 (25)</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Player_113 (22)</t>
-  </si>
-  <si>
-    <t>Player_92 (23)</t>
-  </si>
-  <si>
-    <t>Player_63 (23)</t>
-  </si>
-  <si>
-    <t>Player_88 (15)</t>
+    <t>Player_3 (40)</t>
+  </si>
+  <si>
+    <t>Player_138 (7)</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Player_80 (24)</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Player_54 (24)</t>
+  </si>
+  <si>
+    <t>Player_72 (25)</t>
+  </si>
+  <si>
+    <t>Player_89 (9)</t>
+  </si>
+  <si>
+    <t>Player_160 (16)</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Player_49 (23)</t>
+  </si>
+  <si>
+    <t>Player_165 (15)</t>
+  </si>
+  <si>
+    <t>Player_71 (16)</t>
+  </si>
+  <si>
+    <t>Player_74 (21)</t>
+  </si>
+  <si>
+    <t>Player_188 (18)</t>
+  </si>
+  <si>
+    <t>Player_141 (18)</t>
+  </si>
+  <si>
+    <t>Player_93 (20)</t>
+  </si>
+  <si>
+    <t>Player_50 (3)</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>Player_185 (23)</t>
+    <t>Player_124 (30)</t>
+  </si>
+  <si>
+    <t>Player_162 (32)</t>
+  </si>
+  <si>
+    <t>Player_134 (29)</t>
+  </si>
+  <si>
+    <t>Player_163 (34)</t>
+  </si>
+  <si>
+    <t>Player_116 (34)</t>
+  </si>
+  <si>
+    <t>Player_88 (34)</t>
+  </si>
+  <si>
+    <t>Player_92 (35)</t>
+  </si>
+  <si>
+    <t>Player_35 (38)</t>
+  </si>
+  <si>
+    <t>Player_24 (23)</t>
+  </si>
+  <si>
+    <t>Player_75 (24)</t>
+  </si>
+  <si>
+    <t>Player_43 (27)</t>
+  </si>
+  <si>
+    <t>Player_172 (23)</t>
+  </si>
+  <si>
+    <t>Player_128 (24)</t>
+  </si>
+  <si>
+    <t>Player_177 (24)</t>
+  </si>
+  <si>
+    <t>Player_34 (24)</t>
+  </si>
+  <si>
+    <t>Player_46 (28)</t>
+  </si>
+  <si>
+    <t>(*) Player_180 (29)</t>
+  </si>
+  <si>
+    <t>Player_22 (26)</t>
+  </si>
+  <si>
+    <t>Player_59 (38)</t>
+  </si>
+  <si>
+    <t>Player_140 (31)</t>
+  </si>
+  <si>
+    <t>Player_114 (21)</t>
+  </si>
+  <si>
+    <t>Player_9 (24)</t>
+  </si>
+  <si>
+    <t>Player_186 (18)</t>
+  </si>
+  <si>
+    <t>Player_30 (18)</t>
+  </si>
+  <si>
+    <t>(*) Player_168 (39)</t>
+  </si>
+  <si>
+    <t>(*) Player_166 (5)</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>(*) Player_98 (19)</t>
+  </si>
+  <si>
+    <t>Player_115 (33)</t>
+  </si>
+  <si>
+    <t>Player_199 (29)</t>
+  </si>
+  <si>
+    <t>Player_18 (35)</t>
+  </si>
+  <si>
+    <t>Player_195 (33)</t>
+  </si>
+  <si>
+    <t>Player_150 (33)</t>
+  </si>
+  <si>
+    <t>Player_155 (30)</t>
+  </si>
+  <si>
+    <t>Player_181 (41)</t>
+  </si>
+  <si>
+    <t>Player_94 (7)</t>
   </si>
   <si>
     <t>R9</t>
   </si>
   <si>
-    <t>Player_49 (15)</t>
-  </si>
-  <si>
-    <t>R2</t>
+    <t>Player_176 (29)</t>
+  </si>
+  <si>
+    <t>Player_7 (29)</t>
+  </si>
+  <si>
+    <t>Player_120 (29)</t>
+  </si>
+  <si>
+    <t>Player_187 (29)</t>
+  </si>
+  <si>
+    <t>Player_82 (33)</t>
+  </si>
+  <si>
+    <t>Player_69 (32)</t>
+  </si>
+  <si>
+    <t>Player_58 (33)</t>
+  </si>
+  <si>
+    <t>Player_13 (33)</t>
+  </si>
+  <si>
+    <t>Player_139 (32)</t>
+  </si>
+  <si>
+    <t>Player_17 (27)</t>
+  </si>
+  <si>
+    <t>Player_131 (26)</t>
+  </si>
+  <si>
+    <t>Player_182 (26)</t>
+  </si>
+  <si>
+    <t>Player_171 (26)</t>
   </si>
   <si>
     <t>Player_21 (30)</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>Player_70 (20)</t>
-  </si>
-  <si>
-    <t>Player_136 (10)</t>
-  </si>
-  <si>
-    <t>Player_100 (22)</t>
-  </si>
-  <si>
-    <t>Player_68 (26)</t>
-  </si>
-  <si>
-    <t>Player_72 (12)</t>
-  </si>
-  <si>
-    <t>Player_186 (22)</t>
-  </si>
-  <si>
-    <t>Player_18 (31)</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>Player_85 (38)</t>
-  </si>
-  <si>
-    <t>Player_199 (20)</t>
-  </si>
-  <si>
-    <t>Player_14 (27)</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Player_51 (5)</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Player_5 (19)</t>
-  </si>
-  <si>
-    <t>Player_32 (6)</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Player_99 (20)</t>
-  </si>
-  <si>
-    <t>Player_56 (20)</t>
-  </si>
-  <si>
-    <t>Player_188 (20)</t>
-  </si>
-  <si>
-    <t>Player_119 (14)</t>
-  </si>
-  <si>
-    <t>Player_67 (38)</t>
-  </si>
-  <si>
-    <t>Player_75 (46)</t>
-  </si>
-  <si>
-    <t>Player_102 (32)</t>
-  </si>
-  <si>
-    <t>Player_190 (17)</t>
-  </si>
-  <si>
-    <t>Player_66 (23)</t>
-  </si>
-  <si>
-    <t>Player_165 (22)</t>
-  </si>
-  <si>
-    <t>Player_105 (22)</t>
-  </si>
-  <si>
-    <t>Player_47 (22)</t>
-  </si>
-  <si>
-    <t>Player_176 (30)</t>
-  </si>
-  <si>
-    <t>Player_101 (33)</t>
-  </si>
-  <si>
-    <t>Player_71 (32)</t>
-  </si>
-  <si>
-    <t>Player_11 (34)</t>
-  </si>
-  <si>
-    <t>Player_144 (8)</t>
-  </si>
-  <si>
-    <t>Player_195 (27)</t>
-  </si>
-  <si>
-    <t>Player_115 (23)</t>
-  </si>
-  <si>
-    <t>Player_25 (27)</t>
-  </si>
-  <si>
-    <t>Player_177 (16)</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Player_161 (17)</t>
-  </si>
-  <si>
-    <t>Player_57 (9)</t>
-  </si>
-  <si>
-    <t>Player_122 (17)</t>
-  </si>
-  <si>
-    <t>Player_83 (17)</t>
-  </si>
-  <si>
-    <t>Player_31 (13)</t>
-  </si>
-  <si>
-    <t>Player_147 (22)</t>
-  </si>
-  <si>
-    <t>Player_196 (12)</t>
-  </si>
-  <si>
-    <t>Player_4 (28)</t>
-  </si>
-  <si>
-    <t>Player_54 (28)</t>
+    <t>Player_5 (32)</t>
+  </si>
+  <si>
+    <t>Player_152 (26)</t>
+  </si>
+  <si>
+    <t>Player_63 (30)</t>
+  </si>
+  <si>
+    <t>Player_113 (24)</t>
+  </si>
+  <si>
+    <t>Player_87 (27)</t>
+  </si>
+  <si>
+    <t>Player_135 (27)</t>
+  </si>
+  <si>
+    <t>Player_142 (27)</t>
+  </si>
+  <si>
+    <t>Player_36 (25)</t>
+  </si>
+  <si>
+    <t>Player_100 (25)</t>
+  </si>
+  <si>
+    <t>Player_149 (24)</t>
+  </si>
+  <si>
+    <t>Player_123 (24)</t>
+  </si>
+  <si>
+    <t>Player_112 (26)</t>
+  </si>
+  <si>
+    <t>Player_66 (26)</t>
   </si>
   <si>
     <t>Player_60 (28)</t>
   </si>
   <si>
-    <t>Player_53 (9)</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Player_89 (9)</t>
-  </si>
-  <si>
-    <t>Player_175 (5)</t>
-  </si>
-  <si>
-    <t>(*) Player_42 (46)</t>
-  </si>
-  <si>
-    <t>(*) Player_24 (44)</t>
-  </si>
-  <si>
-    <t>(*) Player_172 (38)</t>
-  </si>
-  <si>
-    <t>(*) Player_35 (31)</t>
-  </si>
-  <si>
-    <t>(*) Player_61 (30)</t>
-  </si>
-  <si>
-    <t>Player_104 (45)</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>Player_13 (26)</t>
-  </si>
-  <si>
-    <t>Player_59 (14)</t>
-  </si>
-  <si>
-    <t>(*) Player_163 (19)</t>
+    <t>Player_97 (26)</t>
   </si>
   <si>
     <t>Player_130 (26)</t>
   </si>
   <si>
-    <t>Player_132 (26)</t>
-  </si>
-  <si>
-    <t>Player_55 (26)</t>
-  </si>
-  <si>
-    <t>Player_30 (26)</t>
-  </si>
-  <si>
-    <t>Player_17 (23)</t>
-  </si>
-  <si>
-    <t>Player_34 (27)</t>
-  </si>
-  <si>
-    <t>Player_135 (23)</t>
-  </si>
-  <si>
-    <t>Player_58 (28)</t>
-  </si>
-  <si>
-    <t>Player_64 (36)</t>
-  </si>
-  <si>
-    <t>Player_194 (42)</t>
-  </si>
-  <si>
-    <t>Player_6 (42)</t>
-  </si>
-  <si>
-    <t>Player_138 (43)</t>
-  </si>
-  <si>
-    <t>Player_154 (26)</t>
-  </si>
-  <si>
-    <t>Player_28 (19)</t>
-  </si>
-  <si>
-    <t>Player_125 (23)</t>
-  </si>
-  <si>
-    <t>Player_126 (25)</t>
-  </si>
-  <si>
-    <t>Player_84 (38)</t>
-  </si>
-  <si>
-    <t>Player_7 (38)</t>
-  </si>
-  <si>
-    <t>Player_139 (27)</t>
-  </si>
-  <si>
-    <t>Player_76 (25)</t>
-  </si>
-  <si>
-    <t>Player_152 (25)</t>
-  </si>
-  <si>
-    <t>Player_41 (34)</t>
-  </si>
-  <si>
-    <t>Player_157 (34)</t>
-  </si>
-  <si>
-    <t>Player_127 (35)</t>
-  </si>
-  <si>
-    <t>Player_87 (22)</t>
-  </si>
-  <si>
-    <t>Player_10 (22)</t>
-  </si>
-  <si>
-    <t>Player_74 (22)</t>
-  </si>
-  <si>
-    <t>Player_167 (22)</t>
-  </si>
-  <si>
-    <t>Player_2 (20)</t>
-  </si>
-  <si>
-    <t>Player_38 (23)</t>
-  </si>
-  <si>
-    <t>Player_48 (19)</t>
-  </si>
-  <si>
-    <t>Player_155 (17)</t>
-  </si>
-  <si>
-    <t>Player_27 (18)</t>
-  </si>
-  <si>
-    <t>Player_142 (19)</t>
-  </si>
-  <si>
-    <t>Player_128 (18)</t>
-  </si>
-  <si>
-    <t>Player_1 (19)</t>
-  </si>
-  <si>
-    <t>Player_179 (19)</t>
-  </si>
-  <si>
-    <t>Player_171 (18)</t>
-  </si>
-  <si>
-    <t>Player_50 (23)</t>
-  </si>
-  <si>
-    <t>Player_149 (19)</t>
-  </si>
-  <si>
-    <t>Player_8 (22)</t>
-  </si>
-  <si>
-    <t>Player_44 (23)</t>
-  </si>
-  <si>
-    <t>Player_146 (14)</t>
-  </si>
-  <si>
-    <t>Player_19 (18)</t>
-  </si>
-  <si>
-    <t>Player_106 (18)</t>
-  </si>
-  <si>
-    <t>(*) Player_43 (9)</t>
-  </si>
-  <si>
-    <t>Player_23 (33)</t>
-  </si>
-  <si>
-    <t>Player_26 (25)</t>
-  </si>
-  <si>
-    <t>Player_191 (12)</t>
-  </si>
-  <si>
-    <t>Player_15 (31)</t>
-  </si>
-  <si>
-    <t>Player_118 (20)</t>
-  </si>
-  <si>
-    <t>Player_39 (17)</t>
-  </si>
-  <si>
-    <t>Player_174 (25)</t>
-  </si>
-  <si>
-    <t>Player_16 (1)</t>
-  </si>
-  <si>
-    <t>Player_197 (7)</t>
-  </si>
-  <si>
-    <t>Player_117 (4)</t>
-  </si>
-  <si>
-    <t>Player_97 (13)</t>
-  </si>
-  <si>
-    <t>Player_120 (16)</t>
-  </si>
-  <si>
-    <t>Player_9 (8)</t>
-  </si>
-  <si>
-    <t>Player_143 (13)</t>
-  </si>
-  <si>
-    <t>Player_82 (18)</t>
-  </si>
-  <si>
-    <t>Player_40 (22)</t>
-  </si>
-  <si>
-    <t>Player_90 (19)</t>
-  </si>
-  <si>
-    <t>Player_78 (18)</t>
-  </si>
-  <si>
-    <t>Player_110 (22)</t>
-  </si>
-  <si>
-    <t>Player_158 (22)</t>
-  </si>
-  <si>
-    <t>Player_193 (29)</t>
-  </si>
-  <si>
-    <t>Player_162 (29)</t>
-  </si>
-  <si>
-    <t>Player_181 (27)</t>
-  </si>
-  <si>
-    <t>Player_192 (13)</t>
-  </si>
-  <si>
-    <t>Player_33 (23)</t>
-  </si>
-  <si>
-    <t>Player_86 (34)</t>
-  </si>
-  <si>
-    <t>Player_36 (21)</t>
-  </si>
-  <si>
-    <t>Player_133 (17)</t>
-  </si>
-  <si>
-    <t>Player_91 (19)</t>
-  </si>
-  <si>
-    <t>Player_94 (17)</t>
-  </si>
-  <si>
-    <t>Player_178 (21)</t>
-  </si>
-  <si>
-    <t>Player_98 (26)</t>
-  </si>
-  <si>
-    <t>Player_148 (13)</t>
+    <t>Player_125 (26)</t>
+  </si>
+  <si>
+    <t>Player_127 (26)</t>
+  </si>
+  <si>
+    <t>Player_145 (21)</t>
+  </si>
+  <si>
+    <t>Player_84 (26)</t>
+  </si>
+  <si>
+    <t>Player_151 (20)</t>
+  </si>
+  <si>
+    <t>Player_41 (33)</t>
+  </si>
+  <si>
+    <t>Player_148 (22)</t>
+  </si>
+  <si>
+    <t>Player_56 (22)</t>
+  </si>
+  <si>
+    <t>Player_136 (22)</t>
+  </si>
+  <si>
+    <t>Player_180 (29)</t>
+  </si>
+  <si>
+    <t>(*) Player_22 (26)</t>
+  </si>
+  <si>
+    <t>Player_119 (30)</t>
+  </si>
+  <si>
+    <t>Player_45 (23)</t>
+  </si>
+  <si>
+    <t>Player_4 (17)</t>
+  </si>
+  <si>
+    <t>Player_8 (12)</t>
+  </si>
+  <si>
+    <t>Player_25 (14)</t>
+  </si>
+  <si>
+    <t>Player_78 (9)</t>
+  </si>
+  <si>
+    <t>Player_52 (17)</t>
+  </si>
+  <si>
+    <t>Player_6 (11)</t>
+  </si>
+  <si>
+    <t>Player_169 (17)</t>
+  </si>
+  <si>
+    <t>Player_28 (17)</t>
+  </si>
+  <si>
+    <t>Player_193 (28)</t>
+  </si>
+  <si>
+    <t>Player_118 (37)</t>
+  </si>
+  <si>
+    <t>Player_189 (18)</t>
+  </si>
+  <si>
+    <t>Player_101 (1)</t>
+  </si>
+  <si>
+    <t>Player_39 (5)</t>
+  </si>
+  <si>
+    <t>Player_137 (3)</t>
+  </si>
+  <si>
+    <t>Player_42 (11)</t>
+  </si>
+  <si>
+    <t>Player_190 (11)</t>
+  </si>
+  <si>
+    <t>Player_26 (6)</t>
+  </si>
+  <si>
+    <t>Player_90 (13)</t>
+  </si>
+  <si>
+    <t>Player_175 (6)</t>
+  </si>
+  <si>
+    <t>Player_111 (10)</t>
+  </si>
+  <si>
+    <t>Player_1 (20)</t>
+  </si>
+  <si>
+    <t>Player_196 (20)</t>
   </si>
   <si>
     <t>Player_73 (21)</t>
   </si>
   <si>
-    <t>Player_153 (21)</t>
-  </si>
-  <si>
-    <t>Player_169 (21)</t>
-  </si>
-  <si>
-    <t>Player_62 (13)</t>
-  </si>
-  <si>
-    <t>Player_95 (13)</t>
-  </si>
-  <si>
-    <t>Player_107 (21)</t>
-  </si>
-  <si>
-    <t>Player_46 (12)</t>
-  </si>
-  <si>
-    <t>Player_20 (31)</t>
-  </si>
-  <si>
-    <t>Player_137 (15)</t>
-  </si>
-  <si>
-    <t>Player_164 (22)</t>
-  </si>
-  <si>
-    <t>Player_121 (26)</t>
-  </si>
-  <si>
-    <t>Player_151 (22)</t>
-  </si>
-  <si>
-    <t>Player_187 (44)</t>
-  </si>
-  <si>
-    <t>Player_22 (6)</t>
-  </si>
-  <si>
-    <t>Player_141 (5)</t>
-  </si>
-  <si>
-    <t>Player_180 (11)</t>
-  </si>
-  <si>
-    <t>Player_80 (19)</t>
-  </si>
-  <si>
-    <t>Player_3 (19)</t>
-  </si>
-  <si>
-    <t>Player_124 (38)</t>
-  </si>
-  <si>
-    <t>Player_156 (41)</t>
-  </si>
-  <si>
-    <t>Player_131 (22)</t>
-  </si>
-  <si>
-    <t>Player_12 (22)</t>
-  </si>
-  <si>
-    <t>Player_93 (22)</t>
-  </si>
-  <si>
-    <t>Player_109 (22)</t>
-  </si>
-  <si>
-    <t>Player_103 (24)</t>
-  </si>
-  <si>
-    <t>Player_123 (23)</t>
-  </si>
-  <si>
-    <t>Player_111 (23)</t>
-  </si>
-  <si>
-    <t>Player_166 (15)</t>
-  </si>
-  <si>
-    <t>Player_198 (15)</t>
-  </si>
-  <si>
-    <t>Player_200 (16)</t>
-  </si>
-  <si>
-    <t>Player_189 (19)</t>
-  </si>
-  <si>
-    <t>Player_96 (21)</t>
-  </si>
-  <si>
-    <t>Player_52 (33)</t>
-  </si>
-  <si>
-    <t>Player_77 (16)</t>
-  </si>
-  <si>
-    <t>Player_150 (20)</t>
-  </si>
-  <si>
-    <t>Player_140 (20)</t>
-  </si>
-  <si>
-    <t>Player_29 (20)</t>
-  </si>
-  <si>
-    <t>Player_79 (16)</t>
-  </si>
-  <si>
-    <t>Player_37 (8)</t>
-  </si>
-  <si>
-    <t>Player_69 (10)</t>
-  </si>
-  <si>
-    <t>Player_45 (8)</t>
-  </si>
-  <si>
-    <t>Player_129 (20)</t>
-  </si>
-  <si>
-    <t>Player_116 (19)</t>
-  </si>
-  <si>
-    <t>Player_183 (13)</t>
-  </si>
-  <si>
-    <t>Player_184 (18)</t>
-  </si>
-  <si>
-    <t>Player_160 (26)</t>
-  </si>
-  <si>
-    <t>Player_114 (19)</t>
-  </si>
-  <si>
-    <t>Player_112 (26)</t>
-  </si>
-  <si>
-    <t>Player_65 (14)</t>
-  </si>
-  <si>
-    <t>Player_145 (27)</t>
-  </si>
-  <si>
-    <t>Player_168 (26)</t>
-  </si>
-  <si>
-    <t>Player_170 (25)</t>
-  </si>
-  <si>
-    <t>Player_108 (26)</t>
-  </si>
-  <si>
-    <t>Player_173 (27)</t>
-  </si>
-  <si>
-    <t>Player_159 (14)</t>
-  </si>
-  <si>
-    <t>Player_182 (3)</t>
+    <t>Player_10 (20)</t>
+  </si>
+  <si>
+    <t>Player_91 (15)</t>
+  </si>
+  <si>
+    <t>Player_156 (17)</t>
+  </si>
+  <si>
+    <t>Player_126 (15)</t>
+  </si>
+  <si>
+    <t>Player_14 (21)</t>
+  </si>
+  <si>
+    <t>Player_81 (23)</t>
+  </si>
+  <si>
+    <t>Player_107 (22)</t>
+  </si>
+  <si>
+    <t>Player_117 (42)</t>
+  </si>
+  <si>
+    <t>Player_68 (24)</t>
+  </si>
+  <si>
+    <t>Player_161 (25)</t>
+  </si>
+  <si>
+    <t>Player_32 (39)</t>
+  </si>
+  <si>
+    <t>Player_33 (27)</t>
+  </si>
+  <si>
+    <t>Player_198 (27)</t>
+  </si>
+  <si>
+    <t>(*) Player_38 (29)</t>
+  </si>
+  <si>
+    <t>Player_154 (9)</t>
+  </si>
+  <si>
+    <t>Player_53 (32)</t>
+  </si>
+  <si>
+    <t>(*) Player_55 (32)</t>
+  </si>
+  <si>
+    <t>Player_47 (30)</t>
+  </si>
+  <si>
+    <t>Player_191 (30)</t>
+  </si>
+  <si>
+    <t>Player_86 (33)</t>
+  </si>
+  <si>
+    <t>Player_106 (32)</t>
+  </si>
+  <si>
+    <t>Player_159 (6)</t>
+  </si>
+  <si>
+    <t>Player_51 (9)</t>
+  </si>
+  <si>
+    <t>Player_153 (7)</t>
+  </si>
+  <si>
+    <t>Player_143 (11)</t>
+  </si>
+  <si>
+    <t>(*) Player_94 (7)</t>
+  </si>
+  <si>
+    <t>Player_170 (18)</t>
+  </si>
+  <si>
+    <t>Player_184 (32)</t>
+  </si>
+  <si>
+    <t>Player_178 (35)</t>
+  </si>
+  <si>
+    <t>Player_67 (34)</t>
+  </si>
+  <si>
+    <t>Player_102 (33)</t>
+  </si>
+  <si>
+    <t>Player_158 (34)</t>
+  </si>
+  <si>
+    <t>Player_48 (22)</t>
+  </si>
+  <si>
+    <t>Player_129 (39)</t>
+  </si>
+  <si>
+    <t>Player_11 (41)</t>
+  </si>
+  <si>
+    <t>Player_77 (35)</t>
+  </si>
+  <si>
+    <t>Player_2 (29)</t>
+  </si>
+  <si>
+    <t>Player_38 (29)</t>
+  </si>
+  <si>
+    <t>Player_105 (29)</t>
+  </si>
+  <si>
+    <t>Player_62 (29)</t>
+  </si>
+  <si>
+    <t>Player_144 (30)</t>
+  </si>
+  <si>
+    <t>Player_20 (30)</t>
+  </si>
+  <si>
+    <t>Player_70 (30)</t>
+  </si>
+  <si>
+    <t>Player_183 (22)</t>
+  </si>
+  <si>
+    <t>Player_109 (29)</t>
+  </si>
+  <si>
+    <t>Player_61 (33)</t>
+  </si>
+  <si>
+    <t>Player_174 (23)</t>
+  </si>
+  <si>
+    <t>Player_37 (27)</t>
+  </si>
+  <si>
+    <t>Player_108 (24)</t>
+  </si>
+  <si>
+    <t>Player_79 (24)</t>
+  </si>
+  <si>
+    <t>Player_146 (26)</t>
+  </si>
+  <si>
+    <t>Player_103 (25)</t>
+  </si>
+  <si>
+    <t>Player_57 (37)</t>
+  </si>
+  <si>
+    <t>Player_27 (26)</t>
+  </si>
+  <si>
+    <t>Player_15 (10)</t>
+  </si>
+  <si>
+    <t>Player_133 (21)</t>
+  </si>
+  <si>
+    <t>Player_167 (21)</t>
+  </si>
+  <si>
+    <t>Player_200 (25)</t>
+  </si>
+  <si>
+    <t>Player_157 (17)</t>
+  </si>
+  <si>
+    <t>Player_65 (28)</t>
+  </si>
+  <si>
+    <t>(*) Player_155 (30)</t>
+  </si>
+  <si>
+    <t>Player_173 (19)</t>
+  </si>
+  <si>
+    <t>Player_95 (33)</t>
+  </si>
+  <si>
+    <t>Player_132 (22)</t>
+  </si>
+  <si>
+    <t>Player_197 (17)</t>
+  </si>
+  <si>
+    <t>Player_185 (19)</t>
+  </si>
+  <si>
+    <t>Player_76 (21)</t>
+  </si>
+  <si>
+    <t>Player_29 (23)</t>
+  </si>
+  <si>
+    <t>Player_99 (24)</t>
+  </si>
+  <si>
+    <t>Player_40 (33)</t>
+  </si>
+  <si>
+    <t>Player_110 (20)</t>
+  </si>
+  <si>
+    <t>Player_31 (5)</t>
+  </si>
+  <si>
+    <t>Player_121 (9)</t>
   </si>
   <si>
     <t>Tennisschule Cyrill Keller - Junioren, Sommertraining</t>
@@ -1451,11 +1469,11 @@
     <col min="8" max="8" width="3.265625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="21.69140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="2.4921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="3.265625" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="20.51171875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="3.34375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="3.28125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="3.265625" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.51171875" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1505,7 +1523,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="3">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2"/>
@@ -1668,20 +1686,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24">
-      <c r="Y24" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB24" t="n" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
+    <row r="24"/>
     <row r="25"/>
     <row r="26"/>
     <row r="27"/>
@@ -1737,20 +1742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34">
-      <c r="Y34" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB34" t="n" s="2">
-        <v>13.0</v>
-      </c>
-    </row>
+    <row r="34"/>
     <row r="35"/>
     <row r="36"/>
     <row r="37"/>
@@ -1808,16 +1800,16 @@
     </row>
     <row r="44">
       <c r="Y44" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Z44" t="n">
         <v>1.0</v>
       </c>
       <c r="AA44" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="AB44" t="n" s="2">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="45"/>
@@ -1877,16 +1869,16 @@
     </row>
     <row r="54">
       <c r="Y54" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z54" t="n">
         <v>1.0</v>
       </c>
       <c r="AA54" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="AB54" t="n" s="2">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -1946,16 +1938,16 @@
     </row>
     <row r="64">
       <c r="Y64" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA64" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AB64" t="n" s="2">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="65"/>
@@ -2015,58 +2007,108 @@
     </row>
     <row r="74">
       <c r="Y74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Z74" t="n">
         <v>4.0</v>
       </c>
       <c r="AA74" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="AB74" t="n" s="2">
         <v>13.0</v>
       </c>
       <c r="AC74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AD74" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE74" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AF74" t="n" s="2">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="AG74" t="s">
         <v>317</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="AI74" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AJ74" t="n" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="75">
       <c r="Y75" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Z75" t="n">
         <v>2.0</v>
       </c>
       <c r="AA75" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AB75" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF75" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ75" t="n" s="2">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="AC76" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF76" t="n" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="AC77" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF77" t="n" s="2">
         <v>10.0</v>
       </c>
     </row>
-    <row r="76"/>
-    <row r="77"/>
     <row r="78"/>
     <row r="79"/>
     <row r="80"/>
@@ -2121,7 +2163,7 @@
     </row>
     <row r="84">
       <c r="Y84" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Z84" t="n">
         <v>4.0</v>
@@ -2130,48 +2172,36 @@
         <v>243</v>
       </c>
       <c r="AB84" t="n" s="2">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC84" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AD84" t="n">
         <v>4.0</v>
       </c>
       <c r="AE84" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF84" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI84" t="s">
         <v>243</v>
       </c>
-      <c r="AF84" t="n" s="2">
+      <c r="AJ84" t="n" s="2">
         <v>10.0</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ84" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AW84" t="s">
-        <v>404</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AY84" t="s">
-        <v>266</v>
-      </c>
-      <c r="AZ84" t="n" s="2">
-        <v>16.0</v>
       </c>
     </row>
     <row r="85">
       <c r="Y85" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Z85" t="n">
         <v>4.0</v>
@@ -2180,36 +2210,24 @@
         <v>243</v>
       </c>
       <c r="AB85" t="n" s="2">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC85" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AD85" t="n">
         <v>4.0</v>
       </c>
       <c r="AE85" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AF85" t="n" s="2">
         <v>12.0</v>
       </c>
-      <c r="AG85" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI85" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ85" t="n" s="2">
-        <v>14.0</v>
-      </c>
     </row>
     <row r="86">
       <c r="Y86" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Z86" t="n">
         <v>4.0</v>
@@ -2221,33 +2239,21 @@
         <v>18.0</v>
       </c>
       <c r="AC86" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AD86" t="n">
         <v>4.0</v>
       </c>
       <c r="AE86" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AF86" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>328</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI86" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ86" t="n" s="2">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="87">
       <c r="Y87" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z87" t="n">
         <v>4.0</v>
@@ -2256,31 +2262,19 @@
         <v>243</v>
       </c>
       <c r="AB87" t="n" s="2">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD87" t="n">
         <v>4.0</v>
       </c>
       <c r="AE87" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AF87" t="n" s="2">
         <v>13.0</v>
-      </c>
-      <c r="AG87" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI87" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ87" t="n" s="2">
-        <v>14.0</v>
       </c>
     </row>
     <row r="88"/>
@@ -2337,190 +2331,178 @@
     </row>
     <row r="94">
       <c r="Y94" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z94" t="n">
         <v>4.0</v>
       </c>
       <c r="AA94" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AB94" t="n" s="2">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD94" t="n">
         <v>4.0</v>
       </c>
       <c r="AE94" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AF94" t="n" s="2">
         <v>16.0</v>
       </c>
       <c r="AG94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH94" t="n">
         <v>4.0</v>
       </c>
       <c r="AI94" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="AJ94" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AW94" t="s">
-        <v>405</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AY94" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ94" t="n" s="2">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="BA94" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="BB94" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BC94" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="BD94" t="n" s="2">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="BE94" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="BF94" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BG94" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="BH94" t="n" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z95" t="n">
         <v>4.0</v>
       </c>
       <c r="AA95" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AB95" t="n" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC95" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AD95" t="n">
         <v>4.0</v>
       </c>
       <c r="AE95" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AF95" t="n" s="2">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="AG95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH95" t="n">
         <v>4.0</v>
       </c>
       <c r="AI95" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AJ95" t="n" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z96" t="n">
         <v>4.0</v>
       </c>
       <c r="AA96" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AB96" t="n" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD96" t="n">
         <v>4.0</v>
       </c>
       <c r="AE96" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="AF96" t="n" s="2">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="AG96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH96" t="n">
         <v>4.0</v>
       </c>
       <c r="AI96" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AJ96" t="n" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Z97" t="n">
         <v>4.0</v>
       </c>
       <c r="AA97" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AB97" t="n" s="2">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD97" t="n">
         <v>4.0</v>
       </c>
       <c r="AE97" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AF97" t="n" s="2">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="AG97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH97" t="n">
         <v>4.0</v>
       </c>
       <c r="AI97" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AJ97" t="n" s="2">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="98"/>
@@ -2577,16 +2559,16 @@
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z104" t="n">
         <v>4.0</v>
       </c>
       <c r="AA104" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AB104" t="n" s="2">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC104" t="s">
         <v>345</v>
@@ -2595,160 +2577,280 @@
         <v>4.0</v>
       </c>
       <c r="AE104" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AF104" t="n" s="2">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="AG104" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AH104" t="n">
         <v>4.0</v>
       </c>
       <c r="AI104" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AJ104" t="n" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AW104" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AX104" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AY104" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AZ104" t="n" s="2">
         <v>16.0</v>
       </c>
       <c r="BA104" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="BB104" t="n">
         <v>4.0</v>
       </c>
       <c r="BC104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BD104" t="n" s="2">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="BE104" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="BF104" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="BG104" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="BH104" t="n" s="2">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z105" t="n">
         <v>4.0</v>
       </c>
       <c r="AA105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AB105" t="n" s="2">
-        <v>7.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF105" t="n" s="2">
+        <v>16.0</v>
       </c>
       <c r="AG105" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AH105" t="n">
         <v>4.0</v>
       </c>
       <c r="AI105" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AJ105" t="n" s="2">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="AW105" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AX105" t="n">
         <v>4.0</v>
       </c>
       <c r="AY105" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="AZ105" t="n" s="2">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="BA105" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="BB105" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="BC105" t="s">
         <v>252</v>
       </c>
       <c r="BD105" t="n" s="2">
-        <v>8.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="BE105" t="s">
+        <v>419</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG105" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH105" t="n" s="2">
+        <v>12.0</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Z106" t="n">
         <v>4.0</v>
       </c>
       <c r="AA106" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AB106" t="n" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF106" t="n" s="2">
+        <v>14.0</v>
       </c>
       <c r="AG106" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="AH106" t="n">
         <v>4.0</v>
       </c>
       <c r="AI106" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AJ106" t="n" s="2">
-        <v>13.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AW106" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY106" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ106" t="n" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="BA106" t="s">
+        <v>416</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC106" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD106" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="BE106" t="s">
+        <v>420</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG106" t="s">
+        <v>259</v>
+      </c>
+      <c r="BH106" t="n" s="2">
+        <v>15.0</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="Z107" t="n">
         <v>4.0</v>
       </c>
       <c r="AA107" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AB107" t="n" s="2">
-        <v>11.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF107" t="n" s="2">
+        <v>13.0</v>
       </c>
       <c r="AG107" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="AH107" t="n">
         <v>4.0</v>
       </c>
       <c r="AI107" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AJ107" t="n" s="2">
-        <v>10.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AW107" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY107" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ107" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="BA107" t="s">
+        <v>417</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC107" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD107" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="BE107" t="s">
+        <v>421</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG107" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH107" t="n" s="2">
+        <v>13.0</v>
       </c>
     </row>
     <row r="108"/>
@@ -2814,349 +2916,301 @@
         <v>241</v>
       </c>
       <c r="D114" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="M114" t="s">
-        <v>275</v>
-      </c>
-      <c r="N114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O114" t="s">
-        <v>262</v>
-      </c>
-      <c r="P114" t="n" s="2">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q114" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="R114" t="n">
         <v>1.0</v>
       </c>
       <c r="S114" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T114" t="n" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="U114" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="V114" t="n">
         <v>1.0</v>
       </c>
       <c r="W114" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="X114" t="n" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y114" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Z114" t="n">
         <v>4.0</v>
       </c>
       <c r="AA114" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="AB114" t="n" s="2">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC114" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="AD114" t="n">
         <v>4.0</v>
       </c>
       <c r="AE114" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="AF114" t="n" s="2">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="AG114" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AH114" t="n">
         <v>4.0</v>
       </c>
       <c r="AI114" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="AJ114" t="n" s="2">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="AK114" t="s">
-        <v>277</v>
+        <v>393</v>
       </c>
       <c r="AL114" t="n">
         <v>1.0</v>
       </c>
       <c r="AM114" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="AN114" t="n" s="2">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="AW114" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="AX114" t="n">
         <v>4.0</v>
       </c>
       <c r="AY114" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AZ114" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="BA114" t="s">
+        <v>422</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC114" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD114" t="n" s="2">
         <v>16.0</v>
       </c>
-      <c r="BA114" t="s">
-        <v>417</v>
-      </c>
-      <c r="BB114" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC114" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD114" t="n" s="2">
-        <v>18.0</v>
-      </c>
       <c r="BE114" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="BF114" t="n">
         <v>4.0</v>
       </c>
       <c r="BG114" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="BH114" t="n" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z115" t="n">
         <v>4.0</v>
       </c>
       <c r="AA115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB115" t="n" s="2">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC115" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AD115" t="n">
         <v>4.0</v>
       </c>
       <c r="AE115" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="AF115" t="n" s="2">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="AG115" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AH115" t="n">
         <v>4.0</v>
       </c>
       <c r="AI115" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="AJ115" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AW115" t="s">
-        <v>414</v>
-      </c>
-      <c r="AX115" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY115" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ115" t="n" s="2">
         <v>13.0</v>
       </c>
       <c r="BA115" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="BB115" t="n">
         <v>4.0</v>
       </c>
       <c r="BC115" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="BD115" t="n" s="2">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="BE115" t="s">
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="BF115" t="n">
         <v>4.0</v>
       </c>
       <c r="BG115" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="BH115" t="n" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Z116" t="n">
         <v>4.0</v>
       </c>
       <c r="AA116" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="AB116" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF116" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ116" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="BA116" t="s">
+        <v>424</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC116" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD116" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="BE116" t="s">
+        <v>285</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG116" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH116" t="n" s="2">
         <v>18.0</v>
-      </c>
-      <c r="AC116" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE116" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF116" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="AG116" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI116" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ116" t="n" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AW116" t="s">
-        <v>415</v>
-      </c>
-      <c r="AX116" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY116" t="s">
-        <v>262</v>
-      </c>
-      <c r="AZ116" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="BA116" t="s">
-        <v>419</v>
-      </c>
-      <c r="BB116" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC116" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD116" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="BE116" t="s">
-        <v>422</v>
-      </c>
-      <c r="BF116" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG116" t="s">
-        <v>293</v>
-      </c>
-      <c r="BH116" t="n" s="2">
-        <v>11.0</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Z117" t="n">
         <v>4.0</v>
       </c>
       <c r="AA117" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AB117" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF117" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ117" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="BA117" t="s">
+        <v>425</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC117" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD117" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="AC117" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE117" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF117" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AG117" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI117" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ117" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="AW117" t="s">
-        <v>416</v>
-      </c>
-      <c r="AX117" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY117" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ117" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="BA117" t="s">
-        <v>420</v>
-      </c>
-      <c r="BB117" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC117" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD117" t="n" s="2">
-        <v>12.0</v>
-      </c>
       <c r="BE117" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="BF117" t="n">
         <v>4.0</v>
       </c>
       <c r="BG117" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="BH117" t="n" s="2">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="118"/>
@@ -3222,175 +3276,175 @@
         <v>243</v>
       </c>
       <c r="D124" t="n" s="2">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E124" t="s">
         <v>247</v>
       </c>
       <c r="F124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>243</v>
+      </c>
+      <c r="H124" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>251</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>252</v>
+      </c>
+      <c r="L124" t="n" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>285</v>
+      </c>
+      <c r="N124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>243</v>
+      </c>
+      <c r="P124" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>286</v>
+      </c>
+      <c r="R124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S124" t="s">
+        <v>252</v>
+      </c>
+      <c r="T124" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="U124" t="s">
+        <v>290</v>
+      </c>
+      <c r="V124" t="n">
         <v>2.0</v>
       </c>
-      <c r="G124" t="s">
-        <v>248</v>
-      </c>
-      <c r="H124" t="n" s="2">
+      <c r="W124" t="s">
+        <v>259</v>
+      </c>
+      <c r="X124" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB124" t="n" s="2">
         <v>12.0</v>
       </c>
-      <c r="I124" t="s">
-        <v>249</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K124" t="s">
-        <v>250</v>
-      </c>
-      <c r="L124" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="M124" t="s">
-        <v>278</v>
-      </c>
-      <c r="N124" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O124" t="s">
-        <v>241</v>
-      </c>
-      <c r="P124" t="n" s="2">
+      <c r="AC124" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF124" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ124" t="n" s="2">
         <v>17.0</v>
       </c>
-      <c r="Q124" t="s">
-        <v>280</v>
-      </c>
-      <c r="R124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S124" t="s">
-        <v>271</v>
-      </c>
-      <c r="T124" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U124" t="s">
-        <v>284</v>
-      </c>
-      <c r="V124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W124" t="s">
-        <v>262</v>
-      </c>
-      <c r="X124" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="Y124" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB124" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF124" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AG124" t="s">
-        <v>368</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI124" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ124" t="n" s="2">
-        <v>18.0</v>
-      </c>
       <c r="AK124" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="AM124" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="AN124" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="AO124" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AP124" t="n">
         <v>1.0</v>
       </c>
       <c r="AQ124" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AR124" t="n" s="2">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="AS124" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AT124" t="n">
         <v>1.0</v>
       </c>
       <c r="AU124" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="AV124" t="n" s="2">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AW124" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AX124" t="n">
         <v>4.0</v>
       </c>
       <c r="AY124" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AZ124" t="n" s="2">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="BA124" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="BB124" t="n">
         <v>4.0</v>
       </c>
       <c r="BC124" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="BD124" t="n" s="2">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="BE124" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="BF124" t="n">
         <v>4.0</v>
       </c>
       <c r="BG124" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="BH124" t="n" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="125">
@@ -3404,115 +3458,127 @@
         <v>243</v>
       </c>
       <c r="D125" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>243</v>
+      </c>
+      <c r="H125" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>253</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>252</v>
+      </c>
+      <c r="L125" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>287</v>
+      </c>
+      <c r="R125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S125" t="s">
+        <v>252</v>
+      </c>
+      <c r="T125" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB125" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF125" t="n" s="2">
         <v>18.0</v>
       </c>
-      <c r="M125" t="s">
-        <v>279</v>
-      </c>
-      <c r="N125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O125" t="s">
+      <c r="AG125" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ125" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>394</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM125" t="s">
         <v>266</v>
       </c>
-      <c r="P125" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>281</v>
-      </c>
-      <c r="R125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S125" t="s">
-        <v>271</v>
-      </c>
-      <c r="T125" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="U125" t="s">
-        <v>285</v>
-      </c>
-      <c r="V125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W125" t="s">
-        <v>262</v>
-      </c>
-      <c r="X125" t="n" s="2">
+      <c r="AN125" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>430</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY125" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ125" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="BA125" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC125" t="s">
+        <v>268</v>
+      </c>
+      <c r="BD125" t="n" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="BE125" t="s">
+        <v>330</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG125" t="s">
+        <v>268</v>
+      </c>
+      <c r="BH125" t="n" s="2">
         <v>12.0</v>
-      </c>
-      <c r="Y125" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA125" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB125" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AC125" t="s">
-        <v>365</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE125" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF125" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="AG125" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI125" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ125" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AW125" t="s">
-        <v>425</v>
-      </c>
-      <c r="AX125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY125" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ125" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="BA125" t="s">
-        <v>429</v>
-      </c>
-      <c r="BB125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC125" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD125" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="BE125" t="s">
-        <v>432</v>
-      </c>
-      <c r="BF125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG125" t="s">
-        <v>243</v>
-      </c>
-      <c r="BH125" t="n" s="2">
-        <v>13.0</v>
       </c>
     </row>
     <row r="126">
@@ -3526,103 +3592,103 @@
         <v>243</v>
       </c>
       <c r="D126" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>249</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>243</v>
+      </c>
+      <c r="H126" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>288</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S126" t="s">
+        <v>252</v>
+      </c>
+      <c r="T126" t="n" s="2">
         <v>13.0</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="Y126" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA126" t="s">
         <v>282</v>
       </c>
-      <c r="R126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S126" t="s">
-        <v>271</v>
-      </c>
-      <c r="T126" t="n" s="2">
+      <c r="AB126" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF126" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ126" t="n" s="2">
         <v>15.0</v>
       </c>
-      <c r="U126" t="s">
-        <v>286</v>
-      </c>
-      <c r="V126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W126" t="s">
-        <v>241</v>
-      </c>
-      <c r="X126" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB126" t="n" s="2">
+      <c r="AW126" t="s">
+        <v>431</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY126" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ126" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="BA126" t="s">
+        <v>434</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC126" t="s">
+        <v>268</v>
+      </c>
+      <c r="BD126" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="BE126" t="s">
+        <v>437</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG126" t="s">
+        <v>268</v>
+      </c>
+      <c r="BH126" t="n" s="2">
         <v>14.0</v>
-      </c>
-      <c r="AC126" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE126" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF126" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="AG126" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI126" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ126" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="AW126" t="s">
-        <v>426</v>
-      </c>
-      <c r="AX126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY126" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ126" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="BA126" t="s">
-        <v>430</v>
-      </c>
-      <c r="BB126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC126" t="s">
-        <v>250</v>
-      </c>
-      <c r="BD126" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="BE126" t="s">
-        <v>433</v>
-      </c>
-      <c r="BF126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG126" t="s">
-        <v>243</v>
-      </c>
-      <c r="BH126" t="n" s="2">
-        <v>12.0</v>
       </c>
     </row>
     <row r="127">
@@ -3638,89 +3704,101 @@
       <c r="D127" t="n" s="2">
         <v>10.0</v>
       </c>
+      <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>243</v>
+      </c>
+      <c r="H127" t="n" s="2">
+        <v>15.0</v>
+      </c>
       <c r="Q127" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="R127" t="n">
         <v>4.0</v>
       </c>
       <c r="S127" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="T127" t="n" s="2">
         <v>11.0</v>
       </c>
-      <c r="U127" t="s">
-        <v>287</v>
-      </c>
-      <c r="V127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W127" t="s">
+      <c r="Y127" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB127" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF127" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI127" t="s">
         <v>266</v>
       </c>
-      <c r="X127" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB127" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AC127" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE127" t="s">
+      <c r="AJ127" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="AW127" t="s">
+        <v>432</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY127" t="s">
         <v>266</v>
-      </c>
-      <c r="AF127" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AW127" t="s">
-        <v>427</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY127" t="s">
-        <v>271</v>
       </c>
       <c r="AZ127" t="n" s="2">
         <v>14.0</v>
       </c>
       <c r="BA127" t="s">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="BB127" t="n">
         <v>4.0</v>
       </c>
       <c r="BC127" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BD127" t="n" s="2">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="BE127" t="s">
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="BF127" t="n">
         <v>4.0</v>
       </c>
       <c r="BG127" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="BH127" t="n" s="2">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="128"/>
@@ -3777,309 +3855,345 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B134" t="n">
         <v>4.0</v>
       </c>
       <c r="C134" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>261</v>
+      </c>
+      <c r="H134" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>267</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K134" t="s">
+        <v>268</v>
+      </c>
+      <c r="L134" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>291</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O134" t="s">
         <v>252</v>
       </c>
-      <c r="D134" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>257</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="P134" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>295</v>
+      </c>
+      <c r="R134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S134" t="s">
         <v>243</v>
       </c>
-      <c r="H134" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="I134" t="s">
-        <v>261</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K134" t="s">
-        <v>262</v>
-      </c>
-      <c r="L134" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="M134" t="s">
-        <v>288</v>
-      </c>
-      <c r="N134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O134" t="s">
-        <v>243</v>
-      </c>
-      <c r="P134" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>292</v>
-      </c>
-      <c r="R134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S134" t="s">
-        <v>293</v>
-      </c>
       <c r="T134" t="n" s="2">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="U134" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="V134" t="n">
         <v>4.0</v>
       </c>
       <c r="W134" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X134" t="n" s="2">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y134" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Z134" t="n">
         <v>4.0</v>
       </c>
       <c r="AA134" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AB134" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="AC134" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AD134" t="n">
         <v>4.0</v>
       </c>
       <c r="AE134" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="AF134" t="n" s="2">
         <v>7.0</v>
       </c>
       <c r="AG134" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AH134" t="n">
         <v>4.0</v>
       </c>
       <c r="AI134" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="AJ134" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="AK134" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AL134" t="n">
         <v>4.0</v>
       </c>
       <c r="AM134" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="AN134" t="n" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AO134" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="AP134" t="n">
         <v>4.0</v>
       </c>
       <c r="AQ134" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AR134" t="n" s="2">
-        <v>9.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AS134" t="s">
+        <v>324</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AU134" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV134" t="n" s="2">
+        <v>11.0</v>
       </c>
       <c r="AW134" t="s">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="AX134" t="n">
         <v>4.0</v>
       </c>
       <c r="AY134" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="AZ134" t="n" s="2">
         <v>17.0</v>
       </c>
       <c r="BA134" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="BB134" t="n">
         <v>4.0</v>
       </c>
       <c r="BC134" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="BD134" t="n" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="BE134" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="BF134" t="n">
         <v>4.0</v>
       </c>
       <c r="BG134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BH134" t="n" s="2">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
       </c>
       <c r="C135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D135" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>263</v>
+      </c>
+      <c r="H135" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>269</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K135" t="s">
+        <v>268</v>
+      </c>
+      <c r="L135" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>292</v>
+      </c>
+      <c r="N135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>252</v>
+      </c>
+      <c r="P135" t="n" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>296</v>
+      </c>
+      <c r="R135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S135" t="s">
+        <v>243</v>
+      </c>
+      <c r="T135" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="U135" t="s">
+        <v>300</v>
+      </c>
+      <c r="V135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W135" t="s">
+        <v>255</v>
+      </c>
+      <c r="X135" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF135" t="n" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI135" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ135" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="AK135" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AM135" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN135" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="AO135" t="s">
+        <v>402</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ135" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR135" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="AS135" t="s">
+        <v>405</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AU135" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV135" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="AW135" t="s">
+        <v>438</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY135" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ135" t="n" s="2">
         <v>16.0</v>
       </c>
-      <c r="E135" t="s">
-        <v>258</v>
-      </c>
-      <c r="F135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="BA135" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC135" t="s">
         <v>243</v>
       </c>
-      <c r="H135" t="n" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="I135" t="s">
-        <v>263</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K135" t="s">
-        <v>241</v>
-      </c>
-      <c r="L135" t="n" s="2">
+      <c r="BD135" t="n" s="2">
         <v>14.0</v>
       </c>
-      <c r="M135" t="s">
-        <v>289</v>
-      </c>
-      <c r="N135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O135" t="s">
-        <v>243</v>
-      </c>
-      <c r="P135" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>294</v>
-      </c>
-      <c r="R135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S135" t="s">
-        <v>293</v>
-      </c>
-      <c r="T135" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="U135" t="s">
-        <v>298</v>
-      </c>
-      <c r="V135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W135" t="s">
-        <v>241</v>
-      </c>
-      <c r="X135" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA135" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB135" t="n" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="AG135" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AI135" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ135" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AK135" t="s">
-        <v>391</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM135" t="s">
-        <v>293</v>
-      </c>
-      <c r="AN135" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="AW135" t="s">
-        <v>436</v>
-      </c>
-      <c r="AX135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AY135" t="s">
-        <v>305</v>
-      </c>
-      <c r="AZ135" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="BA135" t="s">
-        <v>439</v>
-      </c>
-      <c r="BB135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC135" t="s">
-        <v>293</v>
-      </c>
-      <c r="BD135" t="n" s="2">
-        <v>12.0</v>
-      </c>
       <c r="BE135" t="s">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="BF135" t="n">
         <v>4.0</v>
@@ -4088,227 +4202,347 @@
         <v>252</v>
       </c>
       <c r="BH135" t="n" s="2">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>257</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C136" t="s">
         <v>255</v>
       </c>
-      <c r="B136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C136" t="s">
-        <v>248</v>
-      </c>
       <c r="D136" t="n" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F136" t="n">
         <v>4.0</v>
       </c>
       <c r="G136" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="H136" t="n" s="2">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="I136" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J136" t="n">
         <v>4.0</v>
       </c>
       <c r="K136" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L136" t="n" s="2">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="M136" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N136" t="n">
         <v>4.0</v>
       </c>
       <c r="O136" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P136" t="n" s="2">
         <v>12.0</v>
       </c>
       <c r="Q136" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R136" t="n">
         <v>4.0</v>
       </c>
       <c r="S136" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="T136" t="n" s="2">
-        <v>14.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="U136" t="s">
+        <v>301</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W136" t="s">
+        <v>263</v>
+      </c>
+      <c r="X136" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF136" t="n" s="2">
+        <v>8.0</v>
       </c>
       <c r="AG136" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AH136" t="n">
         <v>4.0</v>
       </c>
       <c r="AI136" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ136" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="AK136" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AM136" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN136" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="AO136" t="s">
+        <v>403</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ136" t="s">
         <v>252</v>
       </c>
-      <c r="AJ136" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="AK136" t="s">
-        <v>392</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM136" t="s">
-        <v>293</v>
-      </c>
-      <c r="AN136" t="n" s="2">
-        <v>18.0</v>
+      <c r="AR136" t="n" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="AS136" t="s">
+        <v>406</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AU136" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV136" t="n" s="2">
+        <v>9.0</v>
       </c>
       <c r="AW136" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AX136" t="n">
         <v>4.0</v>
       </c>
       <c r="AY136" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="AZ136" t="n" s="2">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="BA136" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="BB136" t="n">
         <v>4.0</v>
       </c>
       <c r="BC136" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="BD136" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="BE136" t="s">
+        <v>447</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG136" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH136" t="n" s="2">
         <v>13.0</v>
-      </c>
-      <c r="BE136" t="s">
-        <v>443</v>
-      </c>
-      <c r="BF136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BG136" t="s">
-        <v>248</v>
-      </c>
-      <c r="BH136" t="n" s="2">
-        <v>14.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B137" t="n">
         <v>4.0</v>
       </c>
       <c r="C137" t="s">
+        <v>259</v>
+      </c>
+      <c r="D137" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>265</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>266</v>
+      </c>
+      <c r="H137" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>271</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>268</v>
+      </c>
+      <c r="L137" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>294</v>
+      </c>
+      <c r="N137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O137" t="s">
         <v>252</v>
-      </c>
-      <c r="D137" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="E137" t="s">
-        <v>260</v>
-      </c>
-      <c r="F137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G137" t="s">
-        <v>243</v>
-      </c>
-      <c r="H137" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="I137" t="s">
-        <v>265</v>
-      </c>
-      <c r="J137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K137" t="s">
-        <v>266</v>
-      </c>
-      <c r="L137" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="M137" t="s">
-        <v>291</v>
-      </c>
-      <c r="N137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O137" t="s">
-        <v>243</v>
       </c>
       <c r="P137" t="n" s="2">
         <v>14.0</v>
       </c>
       <c r="Q137" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R137" t="n">
         <v>4.0</v>
       </c>
       <c r="S137" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="T137" t="n" s="2">
         <v>13.0</v>
       </c>
+      <c r="U137" t="s">
+        <v>302</v>
+      </c>
+      <c r="V137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W137" t="s">
+        <v>255</v>
+      </c>
+      <c r="X137" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE137" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF137" t="n" s="2">
+        <v>8.0</v>
+      </c>
       <c r="AG137" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AH137" t="n">
         <v>4.0</v>
       </c>
       <c r="AI137" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="AJ137" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="AK137" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AL137" t="n">
         <v>4.0</v>
       </c>
       <c r="AM137" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="AN137" t="n" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AO137" t="s">
+        <v>404</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ137" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR137" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="AS137" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AU137" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV137" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AW137" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY137" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ137" t="n" s="2">
+        <v>18.0</v>
       </c>
       <c r="BA137" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="BB137" t="n">
         <v>4.0</v>
       </c>
       <c r="BC137" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="BD137" t="n" s="2">
-        <v>14.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="BE137" t="s">
+        <v>448</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG137" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH137" t="n" s="2">
+        <v>8.0</v>
       </c>
     </row>
     <row r="138"/>
@@ -4365,558 +4599,522 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B144" t="n">
         <v>8.0</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D144" t="n" s="2">
         <v>18.0</v>
       </c>
       <c r="E144" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F144" t="n">
         <v>4.0</v>
       </c>
       <c r="G144" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="H144" t="n" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="M144" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N144" t="n">
         <v>8.0</v>
       </c>
       <c r="O144" t="s">
+        <v>273</v>
+      </c>
+      <c r="P144" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>270</v>
+      </c>
+      <c r="R144" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S144" t="s">
         <v>268</v>
       </c>
-      <c r="P144" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>304</v>
-      </c>
-      <c r="R144" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S144" t="s">
-        <v>305</v>
-      </c>
       <c r="T144" t="n" s="2">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y144" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Z144" t="n">
         <v>8.0</v>
       </c>
       <c r="AA144" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB144" t="n" s="2">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC144" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AD144" t="n">
         <v>8.0</v>
       </c>
       <c r="AE144" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AF144" t="n" s="2">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="AK144" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="AL144" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AM144" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AN144" t="n" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="AO144" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AP144" t="n">
         <v>4.0</v>
       </c>
       <c r="AQ144" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="AR144" t="n" s="2">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="AW144" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AX144" t="n">
         <v>8.0</v>
       </c>
       <c r="AY144" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AZ144" t="n" s="2">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="BA144" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="BB144" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="BC144" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="BD144" t="n" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="BE144" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="BF144" t="n">
         <v>4.0</v>
       </c>
       <c r="BG144" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="BH144" t="n" s="2">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B145" t="n">
         <v>8.0</v>
       </c>
       <c r="C145" t="s">
+        <v>273</v>
+      </c>
+      <c r="D145" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>304</v>
+      </c>
+      <c r="R145" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S145" t="s">
         <v>268</v>
       </c>
-      <c r="D145" t="n" s="2">
+      <c r="T145" t="n" s="2">
         <v>9.0</v>
       </c>
-      <c r="E145" t="s">
-        <v>272</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G145" t="s">
-        <v>271</v>
-      </c>
-      <c r="H145" t="n" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="M145" t="s">
-        <v>300</v>
-      </c>
-      <c r="N145" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O145" t="s">
-        <v>268</v>
-      </c>
-      <c r="P145" t="n" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>306</v>
-      </c>
-      <c r="R145" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S145" t="s">
-        <v>305</v>
-      </c>
-      <c r="T145" t="n" s="2">
-        <v>13.0</v>
-      </c>
       <c r="Y145" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="Z145" t="n">
         <v>8.0</v>
       </c>
       <c r="AA145" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB145" t="n" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC145" t="s">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="AD145" t="n">
         <v>8.0</v>
       </c>
       <c r="AE145" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AF145" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="AK145" t="s">
-        <v>395</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM145" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN145" t="n" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="AO145" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AP145" t="n">
         <v>4.0</v>
       </c>
       <c r="AQ145" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AR145" t="n" s="2">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="AW145" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="AX145" t="n">
         <v>8.0</v>
       </c>
       <c r="AY145" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ145" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="BA145" t="s">
+        <v>455</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC145" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD145" t="n" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>273</v>
+      </c>
+      <c r="D146" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>305</v>
+      </c>
+      <c r="R146" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S146" t="s">
         <v>268</v>
       </c>
-      <c r="AZ145" t="n" s="2">
+      <c r="T146" t="n" s="2">
         <v>15.0</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="E146" t="s">
-        <v>273</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G146" t="s">
-        <v>271</v>
-      </c>
-      <c r="H146" t="n" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="M146" t="s">
-        <v>301</v>
-      </c>
-      <c r="N146" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O146" t="s">
-        <v>268</v>
-      </c>
-      <c r="P146" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>307</v>
-      </c>
-      <c r="R146" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S146" t="s">
-        <v>305</v>
-      </c>
-      <c r="T146" t="n" s="2">
-        <v>11.0</v>
-      </c>
       <c r="Y146" t="s">
-        <v>269</v>
+        <v>385</v>
       </c>
       <c r="Z146" t="n">
         <v>8.0</v>
       </c>
       <c r="AA146" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB146" t="n" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC146" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AD146" t="n">
         <v>8.0</v>
       </c>
       <c r="AE146" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AF146" t="n" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="AK146" t="s">
-        <v>396</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM146" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN146" t="n" s="2">
-        <v>18.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AO146" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ146" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR146" t="n" s="2">
+        <v>14.0</v>
       </c>
       <c r="AW146" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AX146" t="n">
         <v>8.0</v>
       </c>
       <c r="AY146" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AZ146" t="n" s="2">
         <v>12.0</v>
       </c>
+      <c r="BA146" t="s">
+        <v>456</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC146" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD146" t="n" s="2">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="147">
-      <c r="E147" t="s">
-        <v>274</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G147" t="s">
-        <v>271</v>
-      </c>
-      <c r="H147" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M147" t="s">
-        <v>302</v>
-      </c>
-      <c r="N147" t="n">
+      <c r="A147" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" t="n">
         <v>8.0</v>
       </c>
-      <c r="O147" t="s">
+      <c r="C147" t="s">
+        <v>273</v>
+      </c>
+      <c r="D147" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>306</v>
+      </c>
+      <c r="R147" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S147" t="s">
         <v>268</v>
       </c>
-      <c r="P147" t="n" s="2">
+      <c r="T147" t="n" s="2">
         <v>17.0</v>
       </c>
       <c r="Y147" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Z147" t="n">
         <v>8.0</v>
       </c>
       <c r="AA147" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB147" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="AK147" t="s">
-        <v>397</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM147" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN147" t="n" s="2">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="AW147" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="AX147" t="n">
         <v>8.0</v>
       </c>
       <c r="AY147" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AZ147" t="n" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="BA147" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BC147" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD147" t="n" s="2">
+        <v>9.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="M148" t="s">
-        <v>303</v>
-      </c>
-      <c r="N148" t="n">
+      <c r="A148" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" t="n">
         <v>8.0</v>
       </c>
-      <c r="O148" t="s">
-        <v>268</v>
-      </c>
-      <c r="P148" t="n" s="2">
-        <v>18.0</v>
+      <c r="C148" t="s">
+        <v>273</v>
+      </c>
+      <c r="D148" t="n" s="2">
+        <v>11.0</v>
       </c>
       <c r="Y148" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Z148" t="n">
         <v>8.0</v>
       </c>
       <c r="AA148" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB148" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AK148" t="s">
-        <v>398</v>
-      </c>
-      <c r="AL148" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM148" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN148" t="n" s="2">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="AW148" t="s">
-        <v>448</v>
+        <v>278</v>
       </c>
       <c r="AX148" t="n">
         <v>8.0</v>
       </c>
       <c r="AY148" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AZ148" t="n" s="2">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>273</v>
+      </c>
+      <c r="D149" t="n" s="2">
+        <v>8.0</v>
+      </c>
       <c r="Y149" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Z149" t="n">
         <v>8.0</v>
       </c>
       <c r="AA149" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB149" t="n" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="AK149" t="s">
-        <v>399</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM149" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN149" t="n" s="2">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="AW149" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AX149" t="n">
         <v>8.0</v>
       </c>
       <c r="AY149" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AZ149" t="n" s="2">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>273</v>
+      </c>
+      <c r="D150" t="n" s="2">
+        <v>6.0</v>
+      </c>
       <c r="Y150" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Z150" t="n">
         <v>8.0</v>
       </c>
       <c r="AA150" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB150" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="AK150" t="s">
-        <v>400</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM150" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN150" t="n" s="2">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="AW150" t="s">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="AX150" t="n">
         <v>8.0</v>
       </c>
       <c r="AY150" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AZ150" t="n" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>273</v>
+      </c>
+      <c r="D151" t="n" s="2">
+        <v>15.0</v>
+      </c>
       <c r="Y151" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Z151" t="n">
         <v>8.0</v>
       </c>
       <c r="AA151" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB151" t="n" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="AK151" t="s">
-        <v>401</v>
-      </c>
-      <c r="AL151" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM151" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN151" t="n" s="2">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="AW151" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AX151" t="n">
         <v>8.0</v>
       </c>
       <c r="AY151" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AZ151" t="n" s="2">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="152"/>
